--- a/Test Scenario and Test Case.xlsx
+++ b/Test Scenario and Test Case.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\source\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA77F9F-3F77-4D08-A0F0-6D1BA830DE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2118491-2BD9-4BB2-AE03-4E405ED093ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D53DA981-08B6-45D9-9628-8237139AF7C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D53DA981-08B6-45D9-9628-8237139AF7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario " sheetId="2" r:id="rId1"/>
     <sheet name="TestCase-Deposit" sheetId="1" r:id="rId2"/>
     <sheet name="TestCase-Withdrawal" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCase-Login" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="TestCase-Logout" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="110">
   <si>
     <t>Test Steps</t>
   </si>
@@ -324,12 +325,112 @@
   <si>
     <t>TCWD9</t>
   </si>
+  <si>
+    <t>Login Module</t>
+  </si>
+  <si>
+    <t>TS03</t>
+  </si>
+  <si>
+    <t>Verify Login Function</t>
+  </si>
+  <si>
+    <t>TLG01</t>
+  </si>
+  <si>
+    <t>TLG02</t>
+  </si>
+  <si>
+    <t>TLG03</t>
+  </si>
+  <si>
+    <t>Verify the system's behavior when username and password is null</t>
+  </si>
+  <si>
+    <t>Verify the system's behavior when username and password is invalid</t>
+  </si>
+  <si>
+    <t>Verify the system's behavior when username and password is correct</t>
+  </si>
+  <si>
+    <t>Logout Module</t>
+  </si>
+  <si>
+    <t>TS04</t>
+  </si>
+  <si>
+    <t>Verify Logout Function</t>
+  </si>
+  <si>
+    <t>TLO</t>
+  </si>
+  <si>
+    <t>Verify the system's behavior when Logout</t>
+  </si>
+  <si>
+    <t>Login form is opened
+A valid account must be exists.</t>
+  </si>
+  <si>
+    <t>Login form is opened</t>
+  </si>
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>1) Enter a value in USERNAME Field
+2) Press TAB and move to next Field
+3) Enter a value in PASSWORD Field
+4) Click Login button</t>
+  </si>
+  <si>
+    <t>mngr599099</t>
+  </si>
+  <si>
+    <t>zAqyhYr</t>
+  </si>
+  <si>
+    <t>invalidUser</t>
+  </si>
+  <si>
+    <t>invalidPass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Don't enter a value in USERNAME Field
+2) Press TAB and move to next Field Password
+3) Press TAB </t>
+  </si>
+  <si>
+    <t>Alert "User or Password is not valid" must show</t>
+  </si>
+  <si>
+    <t>Phạm Hoàng Phúc</t>
+  </si>
+  <si>
+    <t>GO to page Guru99 Bank Manager Home</t>
+  </si>
+  <si>
+    <t>Field Username show message "User-ID must not be blank"
+Field Password show message "Password must not be blank"</t>
+  </si>
+  <si>
+    <t>Login to https://www.demo.guru99.com/V4/</t>
+  </si>
+  <si>
+    <t>1) Click Logout button</t>
+  </si>
+  <si>
+    <t>Alert "You Have Succesfully Logged Out" must show</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,13 +451,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -385,26 +479,59 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,8 +566,20 @@
         <bgColor rgb="FFC6D9F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -531,76 +670,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -613,6 +828,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -941,323 +1161,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26626E91-901C-4973-869E-B86E111D4465}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.296875" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.296875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" ht="14.4">
+      <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:7" ht="57.6">
+      <c r="A3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>9</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="19" t="s">
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="57.6">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="19" t="s">
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="43.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19" t="s">
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="57.6">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="19" t="s">
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="43.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="19" t="s">
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" ht="43.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="19" t="s">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="57.6">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="19" t="s">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="57.6">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="19" t="s">
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="43.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="57.6">
+      <c r="A12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="19">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="19" t="s">
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="57.6">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="19" t="s">
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="43.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="19" t="s">
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="57.6">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="19" t="s">
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="43.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="19" t="s">
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="43.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="19" t="s">
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" ht="57.6">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="19" t="s">
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="57.6">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="19" t="s">
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="43.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" ht="28.8">
+      <c r="A21" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="27">
+        <v>3</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" ht="28.8">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" ht="28.8">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.4">
+      <c r="A24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="G12:G20"/>
+  <mergeCells count="16">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="G21:G23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="G3:G11"/>
     <mergeCell ref="D3:D11"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="G12:G20"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1265,369 +1559,369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A96FD1D-8811-461F-88BC-5CD141AE487A}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.296875" customWidth="1"/>
+    <col min="3" max="3" width="40.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" customWidth="1"/>
-    <col min="9" max="9" width="41.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="37.69921875" customWidth="1"/>
+    <col min="9" max="9" width="41.3984375" customWidth="1"/>
+    <col min="10" max="10" width="17.296875" customWidth="1"/>
+    <col min="11" max="11" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+    <row r="2" spans="1:11" ht="14.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="57.6">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="9">
         <v>34840</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" ht="94.5" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" ht="57.6">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="9">
         <v>34840</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:11" ht="108" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="8" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" ht="86.4">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11" ht="72">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="9">
         <v>34840</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:11" ht="117" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:11" ht="72">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="9">
         <v>12</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:11" ht="72">
+      <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
         <v>12</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1639,7 +1933,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1651,7 +1945,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1663,7 +1957,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1675,7 +1969,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1687,7 +1981,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1699,7 +1993,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1711,7 +2005,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1735,7 +2029,7 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" xr:uid="{8930A254-68C1-4B81-A659-32CB1C9A6B5F}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{23C3D086-35AF-4105-B7BC-6D2A329C09E8}"/>
@@ -1748,369 +2042,369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1587B-C655-4764-8C94-B276F1EFE666}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.296875" customWidth="1"/>
+    <col min="3" max="3" width="40.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" customWidth="1"/>
-    <col min="9" max="9" width="41.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="37.69921875" customWidth="1"/>
+    <col min="9" max="9" width="41.3984375" customWidth="1"/>
+    <col min="10" max="10" width="17.296875" customWidth="1"/>
+    <col min="11" max="11" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+    <row r="2" spans="1:11" ht="14.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="57.6">
+      <c r="A3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="9">
         <v>34840</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" ht="94.5" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" ht="57.6">
+      <c r="A5" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="9">
         <v>34840</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
         <v>130000</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:11" ht="108" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="8" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" ht="86.4">
+      <c r="A7" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11" ht="72">
+      <c r="A8" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="9">
         <v>34840</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:11" ht="117" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:11" ht="72">
+      <c r="A10" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="9">
         <v>130000</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:11" ht="72">
+      <c r="A11" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
         <v>130000</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2122,7 +2416,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2134,7 +2428,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2146,7 +2440,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2158,7 +2452,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2170,7 +2464,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2182,7 +2476,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2194,7 +2488,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2218,7 +2512,7 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" xr:uid="{026B9D1C-5632-4CEF-9990-DF9CA00ECA81}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{C51F6982-EE26-4DE0-A451-C1EF508F378D}"/>
@@ -2226,4 +2520,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E5F36D-63C3-4561-815E-84E3448E7AEB}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="11.69921875" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.796875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="37.69921875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="19" style="34" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="25.8984375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="34" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" style="34" customWidth="1"/>
+    <col min="10" max="10" width="19" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="72">
+      <c r="A3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="57.6">
+      <c r="A4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="57.6">
+      <c r="A5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB5C0072-66C9-4B70-A88B-FE1CE06F4CF4}">
+          <x14:formula1>
+            <xm:f>Sheet3!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I3:I5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2043707-0BE6-44E0-8FCA-2CB79C5253AF}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="14.4">
+      <c r="B2" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="14.4">
+      <c r="B3" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA4F589-79B3-4230-BB86-AAA0EF952DA7}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.09765625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.8984375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="33.09765625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="11.8984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" s="41" customFormat="1" ht="28.8">
+      <c r="A3" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AAEF08B-8117-4417-9C51-9530C7929DA2}">
+          <x14:formula1>
+            <xm:f>Sheet3!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Test Scenario and Test Case.xlsx
+++ b/Test Scenario and Test Case.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\source\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chromedriver_win32\KiemThu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2118491-2BD9-4BB2-AE03-4E405ED093ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A7BEA4-11F2-4D96-9673-47B7544407C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D53DA981-08B6-45D9-9628-8237139AF7C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D53DA981-08B6-45D9-9628-8237139AF7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario " sheetId="2" r:id="rId1"/>
-    <sheet name="TestCase-Deposit" sheetId="1" r:id="rId2"/>
-    <sheet name="TestCase-Withdrawal" sheetId="3" r:id="rId3"/>
-    <sheet name="TestCase-Login" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="TestCase-Logout" sheetId="5" r:id="rId6"/>
+    <sheet name="TestCase-NewCustomer" sheetId="8" r:id="rId2"/>
+    <sheet name="Testcase-newAccount" sheetId="7" r:id="rId3"/>
+    <sheet name="TestCase-Deposit" sheetId="1" r:id="rId4"/>
+    <sheet name="TestCase-Withdrawal" sheetId="3" r:id="rId5"/>
+    <sheet name="TestCase-Login" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="TestCase-Logout" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="354">
   <si>
     <t>Test Steps</t>
   </si>
@@ -425,12 +428,1132 @@
   <si>
     <t>Alert "You Have Succesfully Logged Out" must show</t>
   </si>
+  <si>
+    <t>TestCase#</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Customer id</t>
+  </si>
+  <si>
+    <t>Initial deposit</t>
+  </si>
+  <si>
+    <t>TCNewAccount1</t>
+  </si>
+  <si>
+    <t>Check the Add new Account functionality</t>
+  </si>
+  <si>
+    <t>[Customer id] chứa kí tự chữ
+[Initial deposit] hợp lệ</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn New Account
+4. Nhập Customer id
+5. Nhập Initial deposit	
+6. Nhấn submit</t>
+  </si>
+  <si>
+    <t>987yt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer id: Characters are not allowed
+</t>
+  </si>
+  <si>
+    <t>TCNewAccount2</t>
+  </si>
+  <si>
+    <t>[Customer id] chứa kí tự đặc biệt
+[Initial deposit] chứa kí tự chữ</t>
+  </si>
+  <si>
+    <t>956*0</t>
+  </si>
+  <si>
+    <t>1000y</t>
+  </si>
+  <si>
+    <t>Customer id: Special characters are not allowed
+Initial deposit: Characters are not allowed</t>
+  </si>
+  <si>
+    <t>TCNewAccount3</t>
+  </si>
+  <si>
+    <t>[Customer id, Initial deposit] hợp lệ</t>
+  </si>
+  <si>
+    <t>Account Generated Successfully!!</t>
+  </si>
+  <si>
+    <t>TCNewAccount4</t>
+  </si>
+  <si>
+    <t>[Customer id] hợp lệ
+[Initial deposit] &lt; 500</t>
+  </si>
+  <si>
+    <t>Hiện thông báo: Intial deposite must be Rs. 500 or more</t>
+  </si>
+  <si>
+    <t>TCNewAccount5</t>
+  </si>
+  <si>
+    <t>[Customer id] không tồn tại
+[Initial deposit] Hợp lệ</t>
+  </si>
+  <si>
+    <t>Customer does not exist!!</t>
+  </si>
+  <si>
+    <t>TCNewAccount6</t>
+  </si>
+  <si>
+    <t>[Customer id] Không hợp lệ
+[Initial deposit] Không hợp lệ</t>
+  </si>
+  <si>
+    <t>956&amp;0</t>
+  </si>
+  <si>
+    <t>" 3500"</t>
+  </si>
+  <si>
+    <t>Customer id: Special characters are not allowed
+Initial deposit: First character can not have space</t>
+  </si>
+  <si>
+    <t>TCNewAccount7</t>
+  </si>
+  <si>
+    <t>[Customer id] hợp lệ
+[Initial deposit] Chứa kí tự chữ</t>
+  </si>
+  <si>
+    <t>34y4</t>
+  </si>
+  <si>
+    <t>Initial deposit: Characters are not allowed</t>
+  </si>
+  <si>
+    <t>TCNewAccount8</t>
+  </si>
+  <si>
+    <t>[Customer id] Không hợp lệ
+[Initial deposit] Chứa kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>" 95690"</t>
+  </si>
+  <si>
+    <t>34&amp;4</t>
+  </si>
+  <si>
+    <t>Customer id: First character can not have space
+Initial deposit: Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>TCNewAccount9</t>
+  </si>
+  <si>
+    <t>[Customer id] Không thuộc quản lý
+[Initial deposit] Hợp lệ</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn New Account
+4. Để trống Customer id
+5. Để trống Initial deposit	
+6. Nhấn submit</t>
+  </si>
+  <si>
+    <t>You are not authorize to Add Account for this Customer</t>
+  </si>
+  <si>
+    <t>TCNewAccount10</t>
+  </si>
+  <si>
+    <t>[Customer id, Initial deposit] để trống</t>
+  </si>
+  <si>
+    <t>Customer id: Customer ID is required
+Initial deposit: Initial Deposit must not be blank</t>
+  </si>
+  <si>
+    <t>Nhật Linh</t>
+  </si>
+  <si>
+    <t>Customer name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>Check the Add new customer functionality</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn New Customer
+4. Chọn gender
+5. Nhập date of birth
+6. Nhập City
+7. Nhập State
+8. Nhập Mobile Number
+9. Nhập Email
+10. Nhấn submit</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>02/31/2222</t>
+  </si>
+  <si>
+    <t>HaTinh@</t>
+  </si>
+  <si>
+    <t>Son Tra</t>
+  </si>
+  <si>
+    <t>lenhatlinh</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer name: Customer name must not be blank
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Address: Address must not be blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+PIN: PIN Code must not be blank
+Email: Email-ID is not valid
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hiện thông bảo "Please fill all fields"</t>
+    </r>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn New Customer
+4. Nhập customer name
+5. Chọn gender
+6. Nhập date of birth
+7. Nhập Address
+8. Nhập City
+9. Nhập PIN
+10. Nhập Mobile Number
+11. Nhập Email
+12. Nhấn submit</t>
+  </si>
+  <si>
+    <t>Link14</t>
+  </si>
+  <si>
+    <t>470 Tran Dai Nghia</t>
+  </si>
+  <si>
+    <t>Ha Tinh</t>
+  </si>
+  <si>
+    <t>abc12322</t>
+  </si>
+  <si>
+    <t>abc123456</t>
+  </si>
+  <si>
+    <t>lenhatlinh@gmail.com</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>Customer Name: Numbers are not allowed
+State: State must not be blank
+PIN: Characters are not allowed
+Mobile Number Number: Characters are not allowed
+Hiện thông bảo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mở guru99 
+2. Đăng nhập 
+3. Chọn New Customer 
+4. Nhập customer name 
+5. Chọn gender 
+6. Nhập date of birth 
+7. Nhập Address 
+8. Nhập State 
+9. Nhập PIN 
+10. Nhập Mobile Number 
+11. Nhập Email 
+12. Nhấn submit 
+</t>
+  </si>
+  <si>
+    <t>SunLink</t>
+  </si>
+  <si>
+    <t>2/9 Tran Dai Nghia</t>
+  </si>
+  <si>
+    <t>Vippro99</t>
+  </si>
+  <si>
+    <t>'012345678</t>
+  </si>
+  <si>
+    <t>lenhatlinh1@gmail.com</t>
+  </si>
+  <si>
+    <t>City: City must not be blank
+State: Number are not allowed
+PIN: PIN Code must have 6 Digits
+Mobile Number Number: First character cannot be space
+Hiện thông báo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mở guru99 
+2. Đăng nhập 
+3. Chọn New Customer 
+4. Nhập customer name 
+5. Chọn gender 
+6. Nhập date of birth 
+7. Nhập Address 
+8. Nhập City 
+9. Nhập State 
+10. Nhập PIN 
+11. Nhập Email 
+12. Nhấn submit 
+</t>
+  </si>
+  <si>
+    <t>Link@gma</t>
+  </si>
+  <si>
+    <t>Tran@Nghia</t>
+  </si>
+  <si>
+    <t>HaTinh12</t>
+  </si>
+  <si>
+    <t>Nhaem</t>
+  </si>
+  <si>
+    <t>nhatlinh@</t>
+  </si>
+  <si>
+    <t>Customer Name: Special characters are not allowed
+Address: Special characters are not allowed
+City: Number are not allowed
+State: First character cannot be space
+Mobile Number Number: Mobile Number number must not be blank
+Email: Email-ID is not valid
+Hiện thông báo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mở guru99 
+2. Đăng nhập 
+3. Chọn New Customer 
+4. Nhập customer name 
+5. Chọn gender 
+6. Nhập date of birth 
+7. Nhập Address 
+8. Nhập City 
+9. Nhập State 
+10. Nhập PIN 
+11. Nhập Mobile Number 
+12. Nhập Email 
+13. Nhấn submit 
+</t>
+  </si>
+  <si>
+    <t>NhatLink</t>
+  </si>
+  <si>
+    <t>03/02/45565</t>
+  </si>
+  <si>
+    <t>ZzLinhzZ@123</t>
+  </si>
+  <si>
+    <t>@12345</t>
+  </si>
+  <si>
+    <t>quocphu</t>
+  </si>
+  <si>
+    <t>City: First character can not have space
+State: Numbers are not allowed or Special numbers are not allowed
+PIN: Special characters are not allowed
+Email: Email-ID is not valid
+Hiện thông bảo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>Sunlink</t>
+  </si>
+  <si>
+    <t>24haibatrung</t>
+  </si>
+  <si>
+    <t>123anhem</t>
+  </si>
+  <si>
+    <t>@123456</t>
+  </si>
+  <si>
+    <t>phamquocphu@gmail.com</t>
+  </si>
+  <si>
+    <t>Customer name: First character cannot be space
+Address: First character cannot be space
+State: Numbers are not allowed
+Mobile Number: Special characters are not allowed
+Hiện thông bảo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mở guru99 
+2. Đăng nhập 
+3. Chọn New Customer 
+4. Chọn gender 
+5. Nhập date of birth 
+6. Nhập PIN 
+7. Nhập Mobile Number 
+8. Nhập Email 
+9. Nhấn submit 
+</t>
+  </si>
+  <si>
+    <t>$a1234</t>
+  </si>
+  <si>
+    <t>O12345</t>
+  </si>
+  <si>
+    <t>linh321@@@</t>
+  </si>
+  <si>
+    <t>Customer name: Customer name must not be blank
+Address: Address Field must not be blank
+City: City Field must not be blank
+State: State must not be blank
+PIN: Special characters are not allowed
+Mobile Number: First character cannot be space
+Email: Email-ID is not valid
+Hiện thông bảo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>1. Mở guru99 
+2. Đăng nhập 
+3. Chọn New Customer 
+4. Nhập customer name 
+5. Chọn gender 
+6. Nhập date of birth 
+7. Nhập Address 
+8. Nhập City 
+9. Nhập State 
+10. Nhập PIN 
+11. Nhập Mobile Number 
+12. Nhập Email 
+13. Nhấn submit</t>
+  </si>
+  <si>
+    <t>12SunLink</t>
+  </si>
+  <si>
+    <t>63 nguyen chi thanh</t>
+  </si>
+  <si>
+    <t>SonTra</t>
+  </si>
+  <si>
+    <t>O22222</t>
+  </si>
+  <si>
+    <t>linh123@gmail.com</t>
+  </si>
+  <si>
+    <t>Customer name: Number are not allowed
+Address: First character cannot be space
+PIN: First character cannot be space
+Hiện thông bảo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>@Link</t>
+  </si>
+  <si>
+    <t>HaTinh</t>
+  </si>
+  <si>
+    <t>@abc456</t>
+  </si>
+  <si>
+    <t>linh@gmail.com</t>
+  </si>
+  <si>
+    <t>Customer name: Special characters are not allowed
+Mobile Number Number: Special characters are not allowed
+Email: First character can not have space
+Hiện thông báo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Sun Link</t>
+  </si>
+  <si>
+    <t>Tran-Dai-Nghia</t>
+  </si>
+  <si>
+    <t>Ha-Tinh</t>
+  </si>
+  <si>
+    <t>abcd@@</t>
+  </si>
+  <si>
+    <t>linhtm@gmail.com</t>
+  </si>
+  <si>
+    <t>Address: Special characters are not allowed
+City: Special characters are not allowed
+PIN: Special characters are not allowed
+Hiện thông báo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mở guru99 
+2. Đăng nhập 
+3. Chọn New Customer 
+4. Chọn gender 
+5. Nhập date of birth 
+6. Nhập Address 
+7. Nhập City 
+8. Nhập State 
+9. Nhập PIN 
+10. Nhập Email 
+11. Nhấn submit 
+</t>
+  </si>
+  <si>
+    <t>Customer name: Customer name must not be blank
+PIN: PIN Code must have 6 Digits
+Mobile Number: Mobile Number no must not be blank
+Email-ID: First character can not have space
+Hiện thông báo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mở guru99 
+2. Đăng nhập 
+3. Chọn New Customer 
+4. Nhập customer name 
+5. Chọn gender 
+6. Nhập date of birth 
+7. Nhập Address 
+8. Nhập City 
+9. Nhập Mobile Number 
+10. Nhấn submit 
+</t>
+  </si>
+  <si>
+    <t>12HaTinh</t>
+  </si>
+  <si>
+    <t>#$abcd</t>
+  </si>
+  <si>
+    <t>Address: Special characters are not allowed
+City: Numbers are not allowed
+State: State must not be blank
+PIN: PIN Code must not be blank
+Mobile Number Number: Special characters are not allowed
+E-mail: Email-ID must not be blank
+Hiện thông báo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mở guru99 
+2. Đăng nhập 
+3. Chọn New Customer 
+4. Nhập customer name 
+5. Chọn gender 
+6. Nhập date of birth 
+7. Nhập City 
+8. Nhập State 
+9. Nhập PIN 
+10. Nhập Mobile Number 
+11. Nhập Email 
+12. Nhấn submit 
+</t>
+  </si>
+  <si>
+    <t>phamquocphu1@gmail.com</t>
+  </si>
+  <si>
+    <t>Address: Address Field must not be blank
+State: First character cannot have space
+Hiện thông báo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mở guru99
+2. Đăng nhập
+3. Chọn New Customer
+4. Nhập customer name
+5. Chọn gender
+6. Nhập date of birth
+7. Nhập Address
+8. Nhập City
+9. Nhập State
+10. Nhập PIN
+11. Nhập Mobile Number
+12. Nhập Email
+13. Nhấn submit
+</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>plenhatlinh@gmail.com</t>
+  </si>
+  <si>
+    <t>Customer Name: Numbers are not allowed
+Address: Special characters are not allowed
+State: Numbers are not allowed
+PIN: Characters are not allowed
+Hiện thông báo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>12Ha@Tinh</t>
+  </si>
+  <si>
+    <t>@@@@@@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lin htm@gmail.com
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer Name: First character cannot have space
+Date of birth: Date Field must not be blank
+City: Special characters are not allowed
+State: Special characters are not allowed
+PIN: Special characters are not allowed
+Mobile Number Number: Mobile Number no must not be blank
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E-mail: Email-ID is not valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Hiện thông báo "Please fill all fields"</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer Name: First character cannot have space
+Date of birth: Date Field must not be blank
+City: Special characters are not allowed
+State: Special characters are not allowed
+PIN: Special characters are not allowed
+Mobile Number Number: Mobile Number no must not be blank
+E-mail: Email-ID is not valid
+Hiện thông báo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mở guru99 
+2. Đăng nhập 
+3. Chọn New Customer 
+4. Chọn gender 
+5. Nhập date of birth 
+6. Nhập Address 
+7. Nhập State 
+8. Nhập PIN 
+9. Nhập Mobile Number 
+10. Nhấn submit 
+</t>
+  </si>
+  <si>
+    <t>O222222</t>
+  </si>
+  <si>
+    <t>Customer Name: Customer name must not be blank
+Address: Special characters are not allowed
+City: City Field must be not blank
+Mobile Number Number: Characters are not allowed
+E-mail: Email-ID must not be blank
+Hiện thông báo "Please fill all fields"</t>
+  </si>
+  <si>
+    <t>[Customer Name, City, Email, Date of birth, Address, Mobile Number, State, PIN] bỏ trống</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Customer name must not be blank"
+"Date Field must not be blank"
+ "Address Field must not be blank"
+ "City Field must not be blank"
+ "State must not be blank"
+ "PIN Code must not be blank"
+ "Mobile no must not be blank"
+ "Email-ID must not be blank"
+ "Password must not be blank"</t>
+  </si>
+  <si>
+    <t>[Customer Name, City, Email, Date of birth, Address, Mobile Number, State, PIN] hợp lệ</t>
+  </si>
+  <si>
+    <t>PhamHoangPhucAA</t>
+  </si>
+  <si>
+    <t>Tran Dai Nghia Street</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>Q0bP231@example.com</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>Create successful</t>
+  </si>
+  <si>
+    <t>Customer name: Valid, invalid, Numberspecialchar</t>
+  </si>
+  <si>
+    <t>Numberspecialchar</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Alphaspecialchar</t>
+  </si>
+  <si>
+    <t>Date of Birth: valid, invalid</t>
+  </si>
+  <si>
+    <t>specialchar</t>
+  </si>
+  <si>
+    <t>Address: Valid, invalid, specialchar</t>
+  </si>
+  <si>
+    <t>City: valid, invalid, Numberspecialchar</t>
+  </si>
+  <si>
+    <t>State: valid, invalid, Numberspecialchar</t>
+  </si>
+  <si>
+    <t>Pin: valid, invalid, Alphaspecialchar</t>
+  </si>
+  <si>
+    <t>Mobile Number: valid, invalid, Alphaspecialchar</t>
+  </si>
+  <si>
+    <t>Email: Valid, invalid</t>
+  </si>
+  <si>
+    <t>Password: Valid, invalid</t>
+  </si>
+  <si>
+    <t>New Account Module</t>
+  </si>
+  <si>
+    <t>TS05</t>
+  </si>
+  <si>
+    <t>New Account Function</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>New Customer Module</t>
+  </si>
+  <si>
+    <t>New Customer Function</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>[State] để trống
+[Customer name, PIN, Mobile Number] không hợp lệ
+[Date of birth, Address, City, Email, Password] hợp lệ</t>
+  </si>
+  <si>
+    <t>[City] để trống
+[State, PIN, Mobile Number] không hợp lệ
+[Customer name, Password, Date of birth, Address, Email] hợp lệ</t>
+  </si>
+  <si>
+    <t>[Mobile Number] để trống
+[Customer name, Date of birth, State, Address, City, Mobile Number, Email] không 
+hợp lệ
+[Password, PIN] hợp lệ</t>
+  </si>
+  <si>
+    <t>[Date of birth, City, State, PIN, Email] không hợp lệ
+[Customer name, Password, Address, Mobile Number] hợp lệ</t>
+  </si>
+  <si>
+    <t>[Date of birth, State, Address, Mobile Number] không hợp lệ
+[Customer name, Password, City, PIN, Email] hợp lệ</t>
+  </si>
+  <si>
+    <t>[Customer name, Address, City, State] để trống
+[Mobile Number, PIN, Email] không hợp lệ
+[Date of birth, Password] hợp lệ</t>
+  </si>
+  <si>
+    <t>[Customer name, Address, PIN] không hợp lệ 
+[Date of birth, Password, City, State, Mobile Number, Email] hợp lệ</t>
+  </si>
+  <si>
+    <t>[ Customer Name, Mobile Number , City, , Email ] không hợp lệ 
+[Password, Date of birth, Address, PIN, State ] hợp lệ</t>
+  </si>
+  <si>
+    <t>[ Customer Name, Password, Date of birth, State, Mobile Number , Email ] không hợp lệ
+[ Address, City, PIN ] hợp lệ</t>
+  </si>
+  <si>
+    <t>[ Customer Name, Mobile Number ] bỏ trống
+[ Password, Date of birth, PIN, Email ] không hợp lệ
+[ Address, City, State ] hợp lệ</t>
+  </si>
+  <si>
+    <t>[ State, PIN, Email] bỏ trống
+[ Address, City, Mobile Number ] không hợp lệ
+[Customer Name, Password, Date of birth ] hợp lệ</t>
+  </si>
+  <si>
+    <t>[ Address ] bỏ trống
+[ Date of birth, State ] không hợp lệ
+[Customer Name, Password, City, PIN, Mobile Number, Email] hợp lệ</t>
+  </si>
+  <si>
+    <t>[Customer Name, State, PIN, Address] không hợp lệ
+[Date of birth, Password, City, Mobile Number, Email] hợp lệ</t>
+  </si>
+  <si>
+    <t>[Mobile Number] bỏ trống
+[Customer Name, City, Email,Date of birth, Password, State, PIN] không hợp lệ
+[Address] hợp lệ</t>
+  </si>
+  <si>
+    <t>[Customer Name, City, Email] bỏ trống
+[Date of birth, Address, Mobile Number] không hợp lệ
+[Password, State, PIN] hợp lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mở guru99 
+2. Đăng nhập 
+3. Chọn New Customer 
+4. Chọn Gender 
+5. Nhập date of birth 
+6. Nhập Address 
+7. Nhập State 
+8. Nhập PIN 
+9. Nhập Mobile Number 
+10. Nhấn submit 
+</t>
+  </si>
+  <si>
+    <t>[Customer name, Address, PIN] để trống
+[City, Email, Date of Birth] không hợp lệ
+[Password, Mobile Number] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường: [Customer name, Address, PIN] để trống
+[City, Email, Date of Birth] không hợp lệ
+[Password, Mobile Number] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[State] để trống
+[Customer name, PIN, Mobile Number] không hợp lệ
+[Date of birth, Address, City, Email, Password] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[City] để trống
+[State, PIN, Mobile Number] không hợp lệ
+[Customer name, Password, Date of birth, Address, Email] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Mobile Number] để trống
+[Customer name, Date of birth, State, Address, City, Mobile Number, Email] không 
+hợp lệ
+[Password, PIN] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Date of birth, City, State, PIN, Email] không hợp lệ
+[Customer name, Password, Address, Mobile Number] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Date of birth, State, Address, Mobile Number] không hợp lệ
+[Customer name, Password, City, PIN, Email] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Customer name, Address, City, State] để trống
+[Mobile Number, PIN, Email] không hợp lệ
+[Date of birth, Password] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Customer name, Address, PIN] không hợp lệ 
+[Date of birth, Password, City, State, Mobile Number, Email] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[ Customer Name, Mobile Number , City, , Email ] không hợp lệ 
+[Password, Date of birth, Address, PIN, State ] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[ Customer Name, Password, Date of birth, State, Mobile Number , Email ] không hợp lệ
+[ Address, City, PIN ] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[ Customer Name, Mobile Number ] bỏ trống
+[ Password, Date of birth, PIN, Email ] không hợp lệ
+[ Address, City, State ] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[ State, PIN, Email] bỏ trống
+[ Address, City, Mobile Number ] không hợp lệ
+[Customer Name, Password, Date of birth ] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[ Address ] bỏ trống
+[ Date of birth, State ] không hợp lệ
+[Customer Name, Password, City, PIN, Mobile Number, Email] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Customer Name, State, PIN, Address] không hợp lệ
+[Date of birth, Password, City, Mobile Number, Email] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Mobile Number] bỏ trống
+[Customer Name, City, Email,Date of birth, Password, State, PIN] không hợp lệ
+[Address] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Customer Name, City, Email] bỏ trống
+[Date of birth, Address, Mobile Number] không hợp lệ
+[Password, State, PIN] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Customer Name, City, Email, Date of birth, Address, Mobile Number, State, PIN] bỏ trống</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Customer Name, City, Email, Date of birth, Address, Mobile Number, State, PIN] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường: 
+[Customer id] chứa kí tự chữ
+[Initial deposit] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường: 
+[Customer id] chứa kí tự đặc biệt
+[Initial deposit] chứa kí tự chữ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường: 
+[Customer id, Initial deposit] hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường: 
+[Customer id] hợp lệ
+[Initial deposit] &lt; 500</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường: 
+[Customer id] không tồn tại
+[Initial deposit] Hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường: 
+[Customer id] Không hợp lệ
+[Initial deposit] Không hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường: 
+[Customer id] hợp lệ
+[Initial deposit] Chứa kí tự chữ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường: 
+[Customer id] Không hợp lệ
+[Initial deposit] Chứa kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường: 
+[Customer id] Không thuộc quản lý
+[Initial deposit] Hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường: 
+[Customer id, Initial deposit] để trống</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,8 +1653,63 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,8 +1756,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -692,6 +1894,245 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -701,7 +2142,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -717,9 +2158,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -746,51 +2184,19 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -805,17 +2211,191 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1161,377 +2741,774 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26626E91-901C-4973-869E-B86E111D4465}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.296875" customWidth="1"/>
-    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="21.296875" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="57.109375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.8">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="69">
         <v>9</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" ht="57.6">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="20" t="s">
+      <c r="G3" s="72"/>
+    </row>
+    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" ht="43.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="20" t="s">
+      <c r="G4" s="73"/>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" ht="57.6">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="20" t="s">
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" ht="43.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20" t="s">
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:7" ht="43.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="20" t="s">
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:7" ht="57.6">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="20" t="s">
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" ht="57.6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="20" t="s">
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" ht="43.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="20" t="s">
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" ht="57.6">
-      <c r="A12" s="19" t="s">
+      <c r="G11" s="74"/>
+    </row>
+    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="69">
         <v>9</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" ht="57.6">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="20" t="s">
+      <c r="G12" s="72"/>
+    </row>
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" ht="43.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="20" t="s">
+      <c r="G13" s="73"/>
+    </row>
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" ht="57.6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20" t="s">
+      <c r="G14" s="73"/>
+    </row>
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" ht="43.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="20" t="s">
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:7" ht="43.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="20" t="s">
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" ht="57.6">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="20" t="s">
+      <c r="G17" s="73"/>
+    </row>
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" ht="57.6">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="20" t="s">
+      <c r="G18" s="73"/>
+    </row>
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7" ht="43.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="20" t="s">
+      <c r="G19" s="73"/>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="1:7" ht="28.8">
-      <c r="A21" s="27" t="s">
+      <c r="G20" s="74"/>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="78">
         <v>3</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7" ht="28.8">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28" t="s">
+      <c r="G21" s="79"/>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7" ht="28.8">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28" t="s">
+      <c r="G22" s="79"/>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.4">
-      <c r="A24" s="9" t="s">
+      <c r="G23" s="79"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="31"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="95" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" s="95">
+        <v>18</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G25" s="79"/>
+    </row>
+    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G26" s="79"/>
+    </row>
+    <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="96"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G27" s="79"/>
+    </row>
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="96"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28" s="79"/>
+    </row>
+    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="96"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G29" s="79"/>
+    </row>
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="96"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G30" s="79"/>
+    </row>
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G31" s="79"/>
+    </row>
+    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G32" s="79"/>
+    </row>
+    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G33" s="79"/>
+    </row>
+    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G34" s="79"/>
+    </row>
+    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="96"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G35" s="79"/>
+    </row>
+    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="96"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G36" s="79"/>
+    </row>
+    <row r="37" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A37" s="96"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G37" s="79"/>
+    </row>
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="96"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G38" s="79"/>
+    </row>
+    <row r="39" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="96"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" s="79"/>
+    </row>
+    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="96"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G40" s="79"/>
+    </row>
+    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G41" s="79"/>
+    </row>
+    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="97"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G42" s="79"/>
+    </row>
+    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="95" t="s">
+        <v>293</v>
+      </c>
+      <c r="B43" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" s="95">
+        <v>10</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" s="79"/>
+    </row>
+    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" s="79"/>
+    </row>
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="96"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G45" s="79"/>
+    </row>
+    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G46" s="79"/>
+    </row>
+    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G47" s="79"/>
+    </row>
+    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="96"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G48" s="79"/>
+    </row>
+    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="96"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G49" s="79"/>
+    </row>
+    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="96"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50" s="79"/>
+    </row>
+    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="96"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G51" s="79"/>
+    </row>
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="97"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G52" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="33">
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="A25:A42"/>
+    <mergeCell ref="B25:B42"/>
+    <mergeCell ref="C25:C42"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G25:G27"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
@@ -1556,372 +3533,2448 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FD9F69-5E8E-4EB9-8A9D-F5EBADDD3D41}">
+  <dimension ref="A1:R39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="15" width="53.33203125" customWidth="1"/>
+    <col min="16" max="16" width="51.21875" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
+    </row>
+    <row r="3" spans="1:18" ht="150.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36">
+        <v>12345678</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="42">
+        <v>36558</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="195.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="42">
+        <v>36558</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="30">
+        <v>1</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="195.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="30">
+        <v>888888</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="210.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" s="36">
+        <v>12345678</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="210.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="30">
+        <v>888888</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="150.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="42">
+        <v>36558</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="195.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="42">
+        <v>36558</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="L10" s="36">
+        <v>1234567</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="P10" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="210.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="46">
+        <v>36558</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" s="31">
+        <v>888888</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="210.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="46">
+        <v>36558</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="L12" s="37">
+        <v>12345678</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="31">
+        <v>0</v>
+      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="165.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="46">
+        <v>36558</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="195.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" s="31">
+        <v>888888</v>
+      </c>
+      <c r="L15" s="37">
+        <v>12345678</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="O15" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="210.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="46">
+        <v>36558</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="31">
+        <v>1234444</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L16" s="37">
+        <v>12345678</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="195.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L17" s="47"/>
+      <c r="M17" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q17" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="165.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" s="48"/>
+      <c r="J18" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K18" s="31">
+        <v>888888</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="165.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="P19" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="165.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="46">
+        <v>37652</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K20" s="31">
+        <v>550000</v>
+      </c>
+      <c r="L20" s="37">
+        <v>123456789</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="N20" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="C21" s="51"/>
+      <c r="L21" s="52"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="53"/>
+      <c r="L22" s="52"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="57"/>
+      <c r="K23" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="L23" s="88"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="61"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" s="57"/>
+      <c r="K24" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="L24" s="88"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="61"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="I25" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="J25" s="57"/>
+      <c r="K25" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="L25" s="88"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="61"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="L26" s="59"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="61"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="57"/>
+      <c r="K27" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="L27" s="66"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="61"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="L28" s="59"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="57"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="G29" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="I29" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="J29" s="57"/>
+      <c r="K29" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="L29" s="59"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="J30" s="57"/>
+      <c r="K30" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" s="59"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" s="57"/>
+      <c r="K31" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="L31" s="88"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="61"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="I32" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="J32" s="57"/>
+      <c r="N32" s="57"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="I34" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="I35" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="G38" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="H38" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="I38" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="K31:M31"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M20" r:id="rId1" xr:uid="{31AD30FD-9D2F-4CD1-8AEC-E3115BB36DDA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BD5CD2-0B71-4131-BD1C-40990987AEF2}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="47.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="49.77734375" customWidth="1"/>
+    <col min="8" max="8" width="59.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="84"/>
+      <c r="G1" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
+    </row>
+    <row r="3" spans="1:10" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="33">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="32">
+        <v>95690</v>
+      </c>
+      <c r="F5" s="33">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="132.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="32">
+        <v>95690</v>
+      </c>
+      <c r="F6" s="33">
+        <v>300</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="168" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="32">
+        <v>9590</v>
+      </c>
+      <c r="F7" s="33">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="141.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="143.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="32">
+        <v>95690</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="128.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="116.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="32">
+        <v>50705</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A96FD1D-8811-461F-88BC-5CD141AE487A}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.296875" customWidth="1"/>
-    <col min="3" max="3" width="40.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.296875" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="37.69921875" customWidth="1"/>
-    <col min="9" max="9" width="41.3984375" customWidth="1"/>
-    <col min="10" max="10" width="17.296875" customWidth="1"/>
-    <col min="11" max="11" width="16.296875" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" customWidth="1"/>
+    <col min="9" max="9" width="41.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="57.6">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>34840</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="94.5" customHeight="1">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57.6">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>34840</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="108" customHeight="1">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="86.4">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="72">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>34840</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="117" customHeight="1">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="72">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>12</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="72">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
         <v>12</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1933,7 +5986,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1945,7 +5998,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1957,7 +6010,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1969,7 +6022,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1981,7 +6034,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1993,7 +6046,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2005,7 +6058,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2038,7 +6091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1587B-C655-4764-8C94-B276F1EFE666}">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2046,365 +6099,365 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.296875" customWidth="1"/>
-    <col min="3" max="3" width="40.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.296875" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="37.69921875" customWidth="1"/>
-    <col min="9" max="9" width="41.3984375" customWidth="1"/>
-    <col min="10" max="10" width="17.296875" customWidth="1"/>
-    <col min="11" max="11" width="16.296875" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" customWidth="1"/>
+    <col min="9" max="9" width="41.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="57.6">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>34840</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="94.5" customHeight="1">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57.6">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>34840</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>130000</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="108" customHeight="1">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="86.4">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="72">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>34840</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="117" customHeight="1">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="72">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>130000</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="72">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
         <v>130000</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2416,7 +6469,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2428,7 +6481,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2440,7 +6493,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2452,7 +6505,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2464,7 +6517,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2476,7 +6529,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2488,7 +6541,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2522,7 +6575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E5F36D-63C3-4561-815E-84E3448E7AEB}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -2530,68 +6583,68 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.796875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="37.69921875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="19" style="34" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="25.8984375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="34" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" style="34" customWidth="1"/>
-    <col min="10" max="10" width="19" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="34"/>
+    <col min="1" max="1" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="19" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="19" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="72">
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+    </row>
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>82</v>
       </c>
@@ -2601,15 +6654,15 @@
       <c r="C3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="22" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="23" t="s">
         <v>106</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -2619,7 +6672,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57.6">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>83</v>
       </c>
@@ -2629,7 +6682,7 @@
       <c r="C4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="22" t="s">
         <v>97</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2638,10 +6691,10 @@
       <c r="F4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="23" t="s">
         <v>103</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -2651,17 +6704,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57.6">
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="22" t="s">
         <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2670,10 +6723,10 @@
       <c r="F5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="23" t="s">
         <v>105</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -2711,7 +6764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2043707-0BE6-44E0-8FCA-2CB79C5253AF}">
   <dimension ref="B2:B3"/>
   <sheetViews>
@@ -2719,15 +6772,15 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="14.4">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="14.4">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2736,91 +6789,91 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA4F589-79B3-4230-BB86-AAA0EF952DA7}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.296875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.69921875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.09765625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.8984375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="33.09765625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="11.8984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="33"/>
+    <col min="1" max="1" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" s="41" customFormat="1" ht="28.8">
-      <c r="A3" s="41" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2850,4 +6903,16 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3279048-D7A1-4E65-8F63-44B6D4C7CD4D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Scenario and Test Case.xlsx
+++ b/Test Scenario and Test Case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chromedriver_win32\KiemThu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chapter 6-Kiểm thử tự động\KiemThu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A7BEA4-11F2-4D96-9673-47B7544407C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB56A5B5-C04D-4888-835D-4F9D1D7CC46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D53DA981-08B6-45D9-9628-8237139AF7C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{D53DA981-08B6-45D9-9628-8237139AF7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario " sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="TestCase-Login" sheetId="4" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId7"/>
     <sheet name="TestCase-Logout" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId9"/>
+    <sheet name="TestCase-FundTransfer" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="444">
   <si>
     <t>Test Steps</t>
   </si>
@@ -1548,12 +1548,325 @@
     <t>Xác định hành vi của hệ thống khi các trường: 
 [Customer id, Initial deposit] để trống</t>
   </si>
+  <si>
+    <t>TS06</t>
+  </si>
+  <si>
+    <t>TFT1</t>
+  </si>
+  <si>
+    <t>TFT2</t>
+  </si>
+  <si>
+    <t>TFT3</t>
+  </si>
+  <si>
+    <t>TFT4</t>
+  </si>
+  <si>
+    <t>TFT5</t>
+  </si>
+  <si>
+    <t>TFT6</t>
+  </si>
+  <si>
+    <t>TFT7</t>
+  </si>
+  <si>
+    <t>TFT8</t>
+  </si>
+  <si>
+    <t>TFT9</t>
+  </si>
+  <si>
+    <t>TFT10</t>
+  </si>
+  <si>
+    <t>TFT11</t>
+  </si>
+  <si>
+    <t>TFT12</t>
+  </si>
+  <si>
+    <t>TFT13</t>
+  </si>
+  <si>
+    <t>TFT14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Payers account no] để trống
+</t>
+  </si>
+  <si>
+    <t>Payers account no</t>
+  </si>
+  <si>
+    <t>Payees account no</t>
+  </si>
+  <si>
+    <t>Ammount</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Fund Transfer
+4. Nhập Payers account no
+5. Nhập Payees account no
+6. Nhập Amount
+7. Nhập Description</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>zxc</t>
+  </si>
+  <si>
+    <t>Payers account no: Payers Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Payees account no: Payees Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Payees account no: Payers Account Number must not be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Payees account no] để trống
+</t>
+  </si>
+  <si>
+    <t>Test empty Payers Account Number</t>
+  </si>
+  <si>
+    <t>Test empty Payees Account Number</t>
+  </si>
+  <si>
+    <t>Amount: Amount Field must not be blank</t>
+  </si>
+  <si>
+    <t>Amount: Amount field must not be blank</t>
+  </si>
+  <si>
+    <t>Payers account no: Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>`~!@#$%^&amp;*()-_=+{}[]|;:,&lt;.&gt;/?</t>
+  </si>
+  <si>
+    <t>Payers account no: Characters are not allowed</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Fund Transfer
+4. Chọn Payers account no
+5. Nhấn TAB
+6. Nhập Payees account no
+7. Nhập Amount
+8. Nhập Description</t>
+  </si>
+  <si>
+    <t>[Amount] để trống</t>
+  </si>
+  <si>
+    <t>[Payers account no] chứa ký tự</t>
+  </si>
+  <si>
+    <t>[Payees account no] chứa ký tự</t>
+  </si>
+  <si>
+    <t>Payees account no: Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Payees account no: Characters are not allowed</t>
+  </si>
+  <si>
+    <t>Test Characters are not allowed in Amount</t>
+  </si>
+  <si>
+    <t>Test Special characters are not allowed in Amount</t>
+  </si>
+  <si>
+    <t>Test empty Amount</t>
+  </si>
+  <si>
+    <t>Test Special characters are not allowed in Payers Account Number</t>
+  </si>
+  <si>
+    <t>Test Characters are not allowed in Payers Account Number</t>
+  </si>
+  <si>
+    <t>Test Characters are not allowed in Payees Account Number</t>
+  </si>
+  <si>
+    <t>Test Special characters are not allowed in Payees Account Number</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Fund Transfer
+4. Chọn Payers account no
+5. Chọn Payees account no
+6. Nhấn TAB
+7. Nhập Amount
+8. Nhập Description</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Fund Transfer
+4. Nhập Payers account no
+5. Nhập Payees account no
+6. Chọn Amount
+7. Nhấn TAB
+8. Nhập Description</t>
+  </si>
+  <si>
+    <t>Amount: Characters are not allowed</t>
+  </si>
+  <si>
+    <t>Amount: Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Test empty Description</t>
+  </si>
+  <si>
+    <t>[Description] để trống</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Fund Transfer
+4. Nhập Payers account no
+5. Nhập Payees account no
+6. Nhập Amount
+7. Nhấn Description
+8. Nhấn TAB</t>
+  </si>
+  <si>
+    <t>Check if these source and destination account numbers are invalid, system displays an error</t>
+  </si>
+  <si>
+    <t>PASS/FAIL</t>
+  </si>
+  <si>
+    <t>nhập đầy đủ input</t>
+  </si>
+  <si>
+    <t>Payers account No and Payees account No Must Not be Same!!!</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Fund Transfer
+4. Nhập Payers account no
+5. Nhập Payees account no
+6. Nhập Amount
+7. Nhấn Description
+8. Nhấn Submit</t>
+  </si>
+  <si>
+    <t>Transfer Failed. Account Balance low!!</t>
+  </si>
+  <si>
+    <t>[Payers account no, Payees account no] chứa ký tự</t>
+  </si>
+  <si>
+    <t>139454a</t>
+  </si>
+  <si>
+    <t>139455b</t>
+  </si>
+  <si>
+    <t>Please fill all fields</t>
+  </si>
+  <si>
+    <t>Fund Transfer</t>
+  </si>
+  <si>
+    <t>TS07</t>
+  </si>
+  <si>
+    <t>Fund Transfer Function</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường: [Payers account no] để trống</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường [Payers account no] chứa ký tự</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường: [Payees account no] để trống</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường [Payees account no] chứa ký tự</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường [Amount] chứa ký tự</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường: [Amount] để trống</t>
+  </si>
+  <si>
+    <t>[Amount] chứa ký tự</t>
+  </si>
+  <si>
+    <t>[Amount] chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường: [Amount] chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>[Payees account no] chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>[Payers account no] chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường: [Payers account no] chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường: [Payees account no] chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường: [Description] để trống</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi submit trường [Payers account no, Payees account no] chứa ký tự</t>
+  </si>
+  <si>
+    <t>[Payers account no] và [Payees account no] trùng nhau</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi submit trường [Payers account no] và [Payees account no] trùng nhau</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi submit đầy đủ input</t>
+  </si>
+  <si>
+    <t>[Payers account no] không thuộc quyền quản lý của manager</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi submit trường [Payers account no] không thuộc quyền quản lý của manager</t>
+  </si>
+  <si>
+    <t>You are not authorize to Transfer Funds from this account!!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1708,8 +2021,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1780,8 +2107,19 @@
         <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF970707"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2133,22 +2471,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2186,15 +2542,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2320,6 +2667,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2328,88 +2695,141 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="7" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="7" xfId="7" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="FAIL" xfId="6" xr:uid="{7EB2763B-720B-4D16-8EED-77C9D195D405}"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{6F822574-5C7A-4984-89E7-20FA412402DA}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{8B7EA055-0F07-47DD-BD5C-93EB2C6C98E5}"/>
+    <cellStyle name="PASS" xfId="7" xr:uid="{3C62C979-0324-4017-B5A2-BBB376053A73}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF970707"/>
+      <color rgb="FFC40000"/>
+      <color rgb="FFFF5B5B"/>
       <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
@@ -2741,764 +3161,970 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26626E91-901C-4973-869E-B86E111D4465}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="57.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="57.140625" style="64" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="73">
         <v>9</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="72"/>
-    </row>
-    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="16" t="s">
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="73"/>
-    </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="16" t="s">
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="73"/>
-    </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="16" t="s">
+      <c r="G5" s="65"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="73"/>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="16" t="s">
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="73"/>
-    </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="16" t="s">
+      <c r="G7" s="65"/>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="73"/>
-    </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="16" t="s">
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="73"/>
-    </row>
-    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="16" t="s">
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="73"/>
-    </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="16" t="s">
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="74"/>
-    </row>
-    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="69" t="s">
+      <c r="G11" s="65"/>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="73">
         <v>9</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="72"/>
-    </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="16" t="s">
+      <c r="G12" s="65"/>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="73"/>
-    </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="16" t="s">
+      <c r="G13" s="65"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="73"/>
-    </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="16" t="s">
+      <c r="G14" s="65"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="73"/>
-    </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="16" t="s">
+      <c r="G15" s="65"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="73"/>
-    </row>
-    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="16" t="s">
+      <c r="G16" s="65"/>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="73"/>
-    </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="16" t="s">
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="73"/>
-    </row>
-    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="16" t="s">
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="73"/>
-    </row>
-    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="16" t="s">
+      <c r="G19" s="65"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="74"/>
-    </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
+      <c r="G20" s="65"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="78">
+      <c r="D21" s="69">
         <v>3</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="79"/>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="16" t="s">
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="79"/>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="16" t="s">
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="79"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>1</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="95" t="s">
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="66" t="s">
         <v>298</v>
       </c>
-      <c r="D25" s="95">
+      <c r="D25" s="66">
         <v>18</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="117" t="s">
         <v>326</v>
       </c>
-      <c r="G25" s="79"/>
-    </row>
-    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="96"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="16" t="s">
+      <c r="G25" s="65"/>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="117" t="s">
         <v>327</v>
       </c>
-      <c r="G26" s="79"/>
-    </row>
-    <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="96"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="16" t="s">
+      <c r="G26" s="65"/>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="117" t="s">
         <v>328</v>
       </c>
-      <c r="G27" s="79"/>
-    </row>
-    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="96"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="16" t="s">
+      <c r="G27" s="65"/>
+    </row>
+    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="117" t="s">
         <v>329</v>
       </c>
-      <c r="G28" s="79"/>
-    </row>
-    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="96"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="16" t="s">
+      <c r="G28" s="65"/>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="117" t="s">
         <v>330</v>
       </c>
-      <c r="G29" s="79"/>
-    </row>
-    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="96"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="16" t="s">
+      <c r="G29" s="65"/>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="117" t="s">
         <v>331</v>
       </c>
-      <c r="G30" s="79"/>
-    </row>
-    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="96"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="16" t="s">
+      <c r="G30" s="65"/>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="117" t="s">
         <v>332</v>
       </c>
-      <c r="G31" s="79"/>
-    </row>
-    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="96"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="16" t="s">
+      <c r="G31" s="65"/>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="117" t="s">
         <v>333</v>
       </c>
-      <c r="G32" s="79"/>
-    </row>
-    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="96"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="16" t="s">
+      <c r="G32" s="65"/>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="117" t="s">
         <v>334</v>
       </c>
-      <c r="G33" s="79"/>
-    </row>
-    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="96"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="16" t="s">
+      <c r="G33" s="65"/>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="117" t="s">
         <v>335</v>
       </c>
-      <c r="G34" s="79"/>
-    </row>
-    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="96"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="16" t="s">
+      <c r="G34" s="65"/>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="117" t="s">
         <v>336</v>
       </c>
-      <c r="G35" s="79"/>
-    </row>
-    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="96"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="16" t="s">
+      <c r="G35" s="65"/>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="117" t="s">
         <v>337</v>
       </c>
-      <c r="G36" s="79"/>
-    </row>
-    <row r="37" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="96"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="16" t="s">
+      <c r="G36" s="65"/>
+    </row>
+    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="117" t="s">
         <v>338</v>
       </c>
-      <c r="G37" s="79"/>
-    </row>
-    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="96"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="16" t="s">
+      <c r="G37" s="65"/>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="117" t="s">
         <v>339</v>
       </c>
-      <c r="G38" s="79"/>
-    </row>
-    <row r="39" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="16" t="s">
+      <c r="G38" s="65"/>
+    </row>
+    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="117" t="s">
         <v>340</v>
       </c>
-      <c r="G39" s="79"/>
-    </row>
-    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="96"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="16" t="s">
+      <c r="G39" s="65"/>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="117" t="s">
         <v>341</v>
       </c>
-      <c r="G40" s="79"/>
-    </row>
-    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="96"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="16" t="s">
+      <c r="G40" s="65"/>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="117" t="s">
         <v>342</v>
       </c>
-      <c r="G41" s="79"/>
-    </row>
-    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="97"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="16" t="s">
+      <c r="G41" s="65"/>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="117" t="s">
         <v>343</v>
       </c>
-      <c r="G42" s="79"/>
-    </row>
-    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="95" t="s">
+      <c r="G42" s="65"/>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="B43" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="95" t="s">
+      <c r="B43" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="C43" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="D43" s="95">
+      <c r="D43" s="66">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="117" t="s">
         <v>344</v>
       </c>
-      <c r="G43" s="79"/>
-    </row>
-    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="96"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="16" t="s">
+      <c r="G43" s="65"/>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="117" t="s">
         <v>345</v>
       </c>
-      <c r="G44" s="79"/>
-    </row>
-    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="96"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="16" t="s">
+      <c r="G44" s="65"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="117" t="s">
         <v>346</v>
       </c>
-      <c r="G45" s="79"/>
-    </row>
-    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="96"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="16" t="s">
+      <c r="G45" s="65"/>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="117" t="s">
         <v>347</v>
       </c>
-      <c r="G46" s="79"/>
-    </row>
-    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="96"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="16" t="s">
+      <c r="G46" s="65"/>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="117" t="s">
         <v>348</v>
       </c>
-      <c r="G47" s="79"/>
-    </row>
-    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="96"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="16" t="s">
+      <c r="G47" s="65"/>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="117" t="s">
         <v>349</v>
       </c>
-      <c r="G48" s="79"/>
-    </row>
-    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="96"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="16" t="s">
+      <c r="G48" s="65"/>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="117" t="s">
         <v>350</v>
       </c>
-      <c r="G49" s="79"/>
-    </row>
-    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="16" t="s">
+      <c r="G49" s="65"/>
+    </row>
+    <row r="50" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="G50" s="79"/>
-    </row>
-    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="96"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="16" t="s">
+      <c r="G50" s="65"/>
+    </row>
+    <row r="51" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="117" t="s">
         <v>352</v>
       </c>
-      <c r="G51" s="79"/>
-    </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="97"/>
-      <c r="B52" s="97"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="16" t="s">
+      <c r="G51" s="65"/>
+    </row>
+    <row r="52" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="68"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="117" t="s">
         <v>353</v>
       </c>
-      <c r="G52" s="79"/>
+      <c r="G52" s="65"/>
+    </row>
+    <row r="53" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="114" t="s">
+        <v>420</v>
+      </c>
+      <c r="B53" s="114" t="s">
+        <v>421</v>
+      </c>
+      <c r="C53" s="114" t="s">
+        <v>422</v>
+      </c>
+      <c r="D53" s="114">
+        <v>18</v>
+      </c>
+      <c r="E53" s="110" t="s">
+        <v>355</v>
+      </c>
+      <c r="F53" s="117" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" s="115"/>
+    </row>
+    <row r="54" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="114"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="102" t="s">
+        <v>356</v>
+      </c>
+      <c r="F54" s="117" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" s="115"/>
+    </row>
+    <row r="55" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="114"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="102" t="s">
+        <v>357</v>
+      </c>
+      <c r="F55" s="117" t="s">
+        <v>434</v>
+      </c>
+      <c r="G55" s="115"/>
+    </row>
+    <row r="56" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="114"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="102" t="s">
+        <v>358</v>
+      </c>
+      <c r="F56" s="117" t="s">
+        <v>425</v>
+      </c>
+      <c r="G56" s="115"/>
+    </row>
+    <row r="57" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="114"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="102" t="s">
+        <v>359</v>
+      </c>
+      <c r="F57" s="117" t="s">
+        <v>426</v>
+      </c>
+      <c r="G57" s="115"/>
+    </row>
+    <row r="58" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="114"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="102" t="s">
+        <v>360</v>
+      </c>
+      <c r="F58" s="117" t="s">
+        <v>435</v>
+      </c>
+      <c r="G58" s="115"/>
+    </row>
+    <row r="59" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="114"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="102" t="s">
+        <v>361</v>
+      </c>
+      <c r="F59" s="117" t="s">
+        <v>428</v>
+      </c>
+      <c r="G59" s="115"/>
+    </row>
+    <row r="60" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="114"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="102" t="s">
+        <v>362</v>
+      </c>
+      <c r="F60" s="117" t="s">
+        <v>427</v>
+      </c>
+      <c r="G60" s="115"/>
+    </row>
+    <row r="61" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="114"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="102" t="s">
+        <v>363</v>
+      </c>
+      <c r="F61" s="117" t="s">
+        <v>431</v>
+      </c>
+      <c r="G61" s="115"/>
+    </row>
+    <row r="62" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="114"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="102" t="s">
+        <v>364</v>
+      </c>
+      <c r="F62" s="117" t="s">
+        <v>436</v>
+      </c>
+      <c r="G62" s="115"/>
+    </row>
+    <row r="63" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="114"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="102" t="s">
+        <v>365</v>
+      </c>
+      <c r="F63" s="117" t="s">
+        <v>437</v>
+      </c>
+      <c r="G63" s="115"/>
+    </row>
+    <row r="64" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="114"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="102" t="s">
+        <v>366</v>
+      </c>
+      <c r="F64" s="117" t="s">
+        <v>439</v>
+      </c>
+      <c r="G64" s="115"/>
+    </row>
+    <row r="65" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="114"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="102" t="s">
+        <v>367</v>
+      </c>
+      <c r="F65" s="117" t="s">
+        <v>440</v>
+      </c>
+      <c r="G65" s="115"/>
+    </row>
+    <row r="66" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="114"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="102" t="s">
+        <v>368</v>
+      </c>
+      <c r="F66" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="G66" s="115"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F67"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G43:G45"/>
+  <mergeCells count="37">
+    <mergeCell ref="A53:A66"/>
+    <mergeCell ref="B53:B66"/>
+    <mergeCell ref="C53:C66"/>
+    <mergeCell ref="D53:D66"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="G12:G20"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G11"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="G21:G23"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="A25:A42"/>
     <mergeCell ref="B25:B42"/>
@@ -3509,22 +4135,13 @@
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="G25:G27"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G11"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="G12:G20"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G43:G45"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3536,1656 +4153,1662 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FD9F69-5E8E-4EB9-8A9D-F5EBADDD3D41}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A10" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="68" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="64" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="25.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" customWidth="1"/>
-    <col min="15" max="15" width="53.33203125" customWidth="1"/>
-    <col min="16" max="16" width="51.21875" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="53.28515625" customWidth="1"/>
+    <col min="16" max="16" width="51.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="90" t="s">
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="90" t="s">
+      <c r="P1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="80" t="s">
+      <c r="Q1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="82" t="s">
+      <c r="R1" s="85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="39" t="s">
+    <row r="2" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="82"/>
-    </row>
-    <row r="3" spans="1:18" ht="150.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="85"/>
+    </row>
+    <row r="3" spans="1:18" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36">
+      <c r="K3" s="31"/>
+      <c r="L3" s="32">
         <v>12345678</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:18" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="38">
         <v>36558</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="30" t="s">
+      <c r="J4" s="31"/>
+      <c r="K4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="195.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:18" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="38">
         <v>36558</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="30" t="s">
+      <c r="I5" s="31"/>
+      <c r="J5" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="26">
         <v>1</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="195.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:18" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="26">
         <v>888888</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="30" t="s">
+      <c r="L6" s="40"/>
+      <c r="M6" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="Q6" s="34" t="s">
+      <c r="Q6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="210.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:18" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="32">
         <v>12345678</v>
       </c>
-      <c r="M7" s="30" t="s">
+      <c r="M7" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="Q7" s="34" t="s">
+      <c r="Q7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="210.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:18" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="26">
         <v>888888</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="Q8" s="34" t="s">
+      <c r="Q8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="150.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:18" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="30" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="38">
         <v>36558</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="30" t="s">
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="O9" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="Q9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="195.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:18" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="38">
         <v>36558</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="32">
         <v>1234567</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="N10" s="30" t="s">
+      <c r="N10" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="P10" s="45" t="s">
+      <c r="P10" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="210.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:18" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="42">
         <v>36558</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="27">
         <v>888888</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="Q11" s="34" t="s">
+      <c r="Q11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="210.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:18" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="42">
         <v>36558</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="33">
         <v>12345678</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="O12" s="45" t="s">
+      <c r="O12" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="P12" s="45" t="s">
+      <c r="P12" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="Q12" s="34" t="s">
+      <c r="Q12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:18" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="27">
         <v>0</v>
       </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="31" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="Q13" s="34" t="s">
+      <c r="Q13" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="165.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:18" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="42">
         <v>36558</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="37" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48" t="s">
+      <c r="M14" s="44"/>
+      <c r="N14" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="P14" s="45" t="s">
+      <c r="P14" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="Q14" s="34" t="s">
+      <c r="Q14" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="195.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:18" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="31" t="s">
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="27">
         <v>888888</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="33">
         <v>12345678</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="O15" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="P15" s="45" t="s">
+      <c r="P15" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="Q15" s="34" t="s">
+      <c r="Q15" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="210.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:18" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="42">
         <v>36558</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="27">
         <v>1234444</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="33">
         <v>12345678</v>
       </c>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="N16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="45" t="s">
+      <c r="O16" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="P16" s="45" t="s">
+      <c r="P16" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="Q16" s="34" t="s">
+      <c r="Q16" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="195.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:18" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="31" t="s">
+      <c r="L17" s="43"/>
+      <c r="M17" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="O17" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="P17" s="45" t="s">
+      <c r="P17" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="Q17" s="49" t="s">
+      <c r="Q17" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="165.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:18" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="30" t="s">
+      <c r="E18" s="44"/>
+      <c r="F18" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="31" t="s">
+      <c r="I18" s="44"/>
+      <c r="J18" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="27">
         <v>888888</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48" t="s">
+      <c r="M18" s="44"/>
+      <c r="N18" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="Q18" s="34" t="s">
+      <c r="Q18" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="165.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:18" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="31" t="s">
+      <c r="E19" s="44"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="P19" s="31" t="s">
+      <c r="P19" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="Q19" s="34" t="s">
+      <c r="Q19" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="165.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:18" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="42">
         <v>37652</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="27">
         <v>550000</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="33">
         <v>123456789</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="N20" s="48" t="s">
+      <c r="N20" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="O20" s="31" t="s">
+      <c r="O20" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="Q20" s="34" t="s">
+      <c r="Q20" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="C21" s="51"/>
-      <c r="L21" s="52"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="53"/>
-      <c r="L22" s="52"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C21" s="47"/>
+      <c r="L21" s="48"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="49"/>
+      <c r="L22" s="48"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="I23" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="J23" s="57"/>
-      <c r="K23" s="87" t="s">
+      <c r="J23" s="53"/>
+      <c r="K23" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="L23" s="88"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="61"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="62" t="s">
+      <c r="L23" s="77"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="57"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="63" t="s">
+      <c r="I24" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="87" t="s">
+      <c r="J24" s="53"/>
+      <c r="K24" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="L24" s="88"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="61"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+      <c r="L24" s="77"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="57"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="63" t="s">
+      <c r="G25" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="I25" s="63" t="s">
+      <c r="I25" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="87" t="s">
+      <c r="J25" s="53"/>
+      <c r="K25" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="L25" s="88"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="61"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+      <c r="L25" s="77"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="57"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="I26" s="63" t="s">
+      <c r="I26" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58" t="s">
+      <c r="J26" s="53"/>
+      <c r="K26" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="61"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
+      <c r="L26" s="55"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="57"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="65" t="s">
+      <c r="J27" s="53"/>
+      <c r="K27" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="L27" s="66"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="61"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
+      <c r="L27" s="62"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="57"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="63" t="s">
+      <c r="I28" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58" t="s">
+      <c r="J28" s="53"/>
+      <c r="K28" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="57"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+      <c r="L28" s="55"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="53"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="I29" s="63" t="s">
+      <c r="I29" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58" t="s">
+      <c r="J29" s="53"/>
+      <c r="K29" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
+      <c r="L29" s="55"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="I30" s="63" t="s">
+      <c r="I30" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58" t="s">
+      <c r="J30" s="53"/>
+      <c r="K30" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="L30" s="59"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="61"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="57"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="63" t="s">
+      <c r="G31" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="H31" s="63" t="s">
+      <c r="H31" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="63" t="s">
+      <c r="I31" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="87" t="s">
+      <c r="J31" s="53"/>
+      <c r="K31" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="L31" s="88"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="61"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
+      <c r="L31" s="77"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="57"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="F32" s="63" t="s">
+      <c r="F32" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="I32" s="63" t="s">
+      <c r="I32" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="J32" s="57"/>
-      <c r="N32" s="57"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="62" t="s">
+      <c r="J32" s="53"/>
+      <c r="N32" s="53"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="63" t="s">
+      <c r="I33" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="62" t="s">
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="63" t="s">
+      <c r="F34" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="63" t="s">
+      <c r="H34" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="63" t="s">
+      <c r="I34" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="I35" s="63" t="s">
+      <c r="I35" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="G36" s="63" t="s">
+      <c r="G36" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="63" t="s">
+      <c r="H36" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="63" t="s">
+      <c r="I36" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="62" t="s">
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="63" t="s">
+      <c r="I37" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="62" t="s">
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="F38" s="63" t="s">
+      <c r="F38" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="I38" s="63" t="s">
+      <c r="I38" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="62" t="s">
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="63" t="s">
+      <c r="E39" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="63" t="s">
+      <c r="F39" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="63" t="s">
+      <c r="H39" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="I39" s="63" t="s">
+      <c r="I39" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="K24:M24"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="A1:A2"/>
@@ -5193,12 +5816,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:N1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="K31:M31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -5212,383 +5829,383 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BD5CD2-0B71-4131-BD1C-40990987AEF2}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="47.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="49.77734375" customWidth="1"/>
-    <col min="8" max="8" width="59.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" customWidth="1"/>
+    <col min="8" max="8" width="59.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="80" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="28" t="s">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
-    </row>
-    <row r="3" spans="1:10" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="85"/>
+    </row>
+    <row r="3" spans="1:10" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="29">
         <v>1000</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:10" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:10" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="28">
         <v>95690</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="29">
         <v>1000</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="132.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:10" ht="132.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="28">
         <v>95690</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="29">
         <v>300</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="168" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:10" ht="168" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="28">
         <v>9590</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="29">
         <v>1000</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="141.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:10" ht="141.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="143.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:10" ht="143.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="28">
         <v>95690</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="128.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:10" ht="128.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="116.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:10" ht="116.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="28">
         <v>50705</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="29">
         <v>1000</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:10" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5612,369 +6229,369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A96FD1D-8811-461F-88BC-5CD141AE487A}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" customWidth="1"/>
-    <col min="9" max="9" width="41.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1"/>
+    <col min="9" max="9" width="41.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="6" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-    </row>
-    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+    </row>
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>34840</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>34840</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>12</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>34840</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>12</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <v>12</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5986,7 +6603,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5998,7 +6615,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6010,7 +6627,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6022,7 +6639,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6034,7 +6651,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6046,7 +6663,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6058,7 +6675,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6095,369 +6712,369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1587B-C655-4764-8C94-B276F1EFE666}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" customWidth="1"/>
-    <col min="9" max="9" width="41.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1"/>
+    <col min="9" max="9" width="41.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="6" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-    </row>
-    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+    </row>
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>34840</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>34840</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>130000</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>34840</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>130000</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <v>130000</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6469,7 +7086,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6481,7 +7098,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6493,7 +7110,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6505,7 +7122,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6517,7 +7134,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6529,7 +7146,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6541,7 +7158,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6579,160 +7196,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E5F36D-63C3-4561-815E-84E3448E7AEB}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="19" style="21" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="19" style="21" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="21"/>
+    <col min="1" max="1" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="19" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="19" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="6" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-    </row>
-    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+    </row>
+    <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6772,15 +7389,15 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6797,83 +7414,83 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.88671875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="20"/>
+    <col min="1" max="1" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-    </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+    </row>
+    <row r="3" spans="1:9" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6907,12 +7524,865 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3279048-D7A1-4E65-8F63-44B6D4C7CD4D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="94" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="94" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="96" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="94" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="95" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="92" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="92" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" style="96" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" style="96" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="93" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="92" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="94"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="97" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1" s="97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="98" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="98" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+    </row>
+    <row r="3" spans="1:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="110" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="111" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="111" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110">
+        <v>70234345103</v>
+      </c>
+      <c r="G3" s="110">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="110" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3" s="111" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" s="111" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" s="112" t="s">
+        <v>389</v>
+      </c>
+      <c r="L3" s="99" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="102" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="102">
+        <v>70234345103</v>
+      </c>
+      <c r="G4" s="102">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I4" s="104" t="s">
+        <v>388</v>
+      </c>
+      <c r="J4" s="104" t="s">
+        <v>388</v>
+      </c>
+      <c r="K4" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="L4" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="102" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="102">
+        <v>70234345103</v>
+      </c>
+      <c r="G5" s="102">
+        <v>100000</v>
+      </c>
+      <c r="H5" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>386</v>
+      </c>
+      <c r="J5" s="104" t="s">
+        <v>386</v>
+      </c>
+      <c r="K5" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="L5" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" s="102">
+        <v>69234785103</v>
+      </c>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102">
+        <v>100000</v>
+      </c>
+      <c r="H6" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I6" s="103" t="s">
+        <v>379</v>
+      </c>
+      <c r="J6" s="103" t="s">
+        <v>380</v>
+      </c>
+      <c r="K6" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="L6" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="102">
+        <v>69234785103</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="102">
+        <v>100000</v>
+      </c>
+      <c r="H7" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>395</v>
+      </c>
+      <c r="J7" s="104" t="s">
+        <v>395</v>
+      </c>
+      <c r="K7" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="L7" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="102" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>432</v>
+      </c>
+      <c r="D8" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="102">
+        <v>69234785103</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>387</v>
+      </c>
+      <c r="G8" s="102">
+        <v>100000</v>
+      </c>
+      <c r="H8" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I8" s="104" t="s">
+        <v>394</v>
+      </c>
+      <c r="J8" s="104" t="s">
+        <v>394</v>
+      </c>
+      <c r="K8" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="L8" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="102" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="103" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>404</v>
+      </c>
+      <c r="E9" s="102">
+        <v>69234785103</v>
+      </c>
+      <c r="F9" s="102">
+        <v>70234345103</v>
+      </c>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I9" s="103" t="s">
+        <v>384</v>
+      </c>
+      <c r="J9" s="103" t="s">
+        <v>385</v>
+      </c>
+      <c r="K9" s="106" t="s">
+        <v>375</v>
+      </c>
+      <c r="L9" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="102" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="102">
+        <v>69234785103</v>
+      </c>
+      <c r="F10" s="102">
+        <v>70234345103</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I10" s="108" t="s">
+        <v>405</v>
+      </c>
+      <c r="J10" s="108" t="s">
+        <v>405</v>
+      </c>
+      <c r="K10" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="L10" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="102" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" s="103" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="E11" s="102">
+        <v>69234785103</v>
+      </c>
+      <c r="F11" s="102">
+        <v>70234345103</v>
+      </c>
+      <c r="G11" s="109" t="s">
+        <v>387</v>
+      </c>
+      <c r="H11" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I11" s="103" t="s">
+        <v>406</v>
+      </c>
+      <c r="J11" s="103" t="s">
+        <v>406</v>
+      </c>
+      <c r="K11" s="106" t="s">
+        <v>375</v>
+      </c>
+      <c r="L11" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="102" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>409</v>
+      </c>
+      <c r="E12" s="102">
+        <v>69234785103</v>
+      </c>
+      <c r="F12" s="102">
+        <v>70234345103</v>
+      </c>
+      <c r="G12" s="102">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
+      <c r="H12" s="102"/>
+      <c r="I12" s="103" t="s">
+        <v>384</v>
+      </c>
+      <c r="J12" s="103" t="s">
+        <v>385</v>
+      </c>
+      <c r="K12" s="106" t="s">
+        <v>375</v>
+      </c>
+      <c r="L12" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="102" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>414</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>417</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="G13" s="102">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
+      <c r="H13" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I13" s="103" t="s">
+        <v>419</v>
+      </c>
+      <c r="J13" s="103" t="s">
+        <v>419</v>
+      </c>
+      <c r="K13" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="L13" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="102" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>438</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>414</v>
+      </c>
+      <c r="E14" s="102">
+        <v>69234785103</v>
+      </c>
+      <c r="F14" s="102">
+        <v>69234785103</v>
+      </c>
+      <c r="G14" s="102">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
+      <c r="H14" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I14" s="103" t="s">
+        <v>413</v>
+      </c>
+      <c r="J14" s="103" t="s">
+        <v>413</v>
+      </c>
+      <c r="K14" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="L14" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="102" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>414</v>
+      </c>
+      <c r="E15" s="102">
+        <v>139454</v>
+      </c>
+      <c r="F15" s="102">
+        <v>139455</v>
+      </c>
+      <c r="G15" s="102">
+        <v>999999</v>
+      </c>
+      <c r="H15" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I15" s="103" t="s">
+        <v>415</v>
+      </c>
+      <c r="J15" s="103" t="s">
+        <v>415</v>
+      </c>
+      <c r="K15" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="L15" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="102" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>414</v>
+      </c>
+      <c r="E16" s="102">
+        <v>1</v>
+      </c>
+      <c r="F16" s="102">
+        <v>139455</v>
+      </c>
+      <c r="G16" s="102">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
+      <c r="H16" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I16" s="103" t="s">
+        <v>443</v>
+      </c>
+      <c r="J16" s="103" t="s">
+        <v>443</v>
+      </c>
+      <c r="K16" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="L16" s="101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="47"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="47"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="96"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="92"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="96"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="92"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="96"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="92"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="96"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="92"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="96"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="92"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="96"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="92"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="96"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="92"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="96"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="92"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="96"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="92"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="96"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="92"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="96"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="92"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="96"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="92"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="96"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="92"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="96"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="92"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="96"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="92"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="96"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="92"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="96"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="92"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="96"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="92"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Scenario and Test Case.xlsx
+++ b/Test Scenario and Test Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chapter 6-Kiểm thử tự động\KiemThu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB56A5B5-C04D-4888-835D-4F9D1D7CC46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB6DE6-0126-442A-B04B-100C99419831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{D53DA981-08B6-45D9-9628-8237139AF7C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{D53DA981-08B6-45D9-9628-8237139AF7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario " sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId7"/>
     <sheet name="TestCase-Logout" sheetId="5" r:id="rId8"/>
     <sheet name="TestCase-FundTransfer" sheetId="9" r:id="rId9"/>
+    <sheet name="TestCase-CustomStmForm" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="551">
   <si>
     <t>Test Steps</t>
   </si>
@@ -1799,74 +1800,577 @@
     <t>Fund Transfer Function</t>
   </si>
   <si>
-    <t>Xác định hành vi của hệ thống khi trường: [Payers account no] để trống</t>
-  </si>
-  <si>
-    <t>Xác định hành vi của hệ thống khi trường [Payers account no] chứa ký tự</t>
-  </si>
-  <si>
-    <t>Xác định hành vi của hệ thống khi trường: [Payees account no] để trống</t>
-  </si>
-  <si>
-    <t>Xác định hành vi của hệ thống khi trường [Payees account no] chứa ký tự</t>
-  </si>
-  <si>
-    <t>Xác định hành vi của hệ thống khi trường [Amount] chứa ký tự</t>
-  </si>
-  <si>
-    <t>Xác định hành vi của hệ thống khi trường: [Amount] để trống</t>
-  </si>
-  <si>
     <t>[Amount] chứa ký tự</t>
   </si>
   <si>
     <t>[Amount] chứa ký tự đặc biệt</t>
   </si>
   <si>
-    <t>Xác định hành vi của hệ thống khi trường: [Amount] chứa ký tự đặc biệt</t>
-  </si>
-  <si>
     <t>[Payees account no] chứa ký tự đặc biệt</t>
   </si>
   <si>
     <t>[Payers account no] chứa ký tự đặc biệt</t>
   </si>
   <si>
-    <t>Xác định hành vi của hệ thống khi trường: [Payers account no] chứa ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Xác định hành vi của hệ thống khi trường: [Payees account no] chứa ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Xác định hành vi của hệ thống khi trường: [Description] để trống</t>
-  </si>
-  <si>
-    <t>Xác định hành vi của hệ thống khi submit trường [Payers account no, Payees account no] chứa ký tự</t>
-  </si>
-  <si>
     <t>[Payers account no] và [Payees account no] trùng nhau</t>
   </si>
   <si>
-    <t>Xác định hành vi của hệ thống khi submit trường [Payers account no] và [Payees account no] trùng nhau</t>
-  </si>
-  <si>
     <t>Xác định hành vi của hệ thống khi submit đầy đủ input</t>
   </si>
   <si>
     <t>[Payers account no] không thuộc quyền quản lý của manager</t>
   </si>
   <si>
-    <t>Xác định hành vi của hệ thống khi submit trường [Payers account no] không thuộc quyền quản lý của manager</t>
-  </si>
-  <si>
     <t>You are not authorize to Transfer Funds from this account!!</t>
+  </si>
+  <si>
+    <t>TCSF1</t>
+  </si>
+  <si>
+    <t>TCSF2</t>
+  </si>
+  <si>
+    <t>TCSF3</t>
+  </si>
+  <si>
+    <t>TCSF4</t>
+  </si>
+  <si>
+    <t>TCSF5</t>
+  </si>
+  <si>
+    <t>TCSF6</t>
+  </si>
+  <si>
+    <t>TCSF7</t>
+  </si>
+  <si>
+    <t>TCSF8</t>
+  </si>
+  <si>
+    <t>TCSF9</t>
+  </si>
+  <si>
+    <t>TCSF10</t>
+  </si>
+  <si>
+    <t>TCSF11</t>
+  </si>
+  <si>
+    <t>TCSF12</t>
+  </si>
+  <si>
+    <t>TCSF13</t>
+  </si>
+  <si>
+    <t>TCSF14</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>Minimum Transaction Value</t>
+  </si>
+  <si>
+    <t>Number of Transaction</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Special Char</t>
+  </si>
+  <si>
+    <t>Account No: Null, Char, Special Char, Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From Date: Null, Valid</t>
+  </si>
+  <si>
+    <t>To Date: Null, Valid</t>
+  </si>
+  <si>
+    <t>Minimum Transaction Value: Null, Char, Special Char, Valid</t>
+  </si>
+  <si>
+    <t>Number of Transaction: Null, Char, Special Char, Valid</t>
+  </si>
+  <si>
+    <t>Test empty Account No and From Date</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Customised Statement
+4. Chọn Account No
+5. Nhấn TAB
+6. Chọn From Date
+7. Nhấn TAB
+8. Nhập To Date
+9. Nhập Minimum Transaction Value
+10. Nhập Number of Transaction</t>
+  </si>
+  <si>
+    <t>[Account No, From Date] để trống
+[To Date, Minimum Transaction Value, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>[Account No] điền ký tự
+[From Date] để trống
+[To Date, Minimum Transaction Value, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>[Account No] điền ký tự đặc biệt
+[From Date] để trống
+[To Date, Minimum Transaction Value, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Customised Statement
+4. Nhập Account No
+5. Chọn From Date
+6. Nhấn TAB
+7. Nhập To Date
+8. Nhập Minimum Transaction Value
+9. Nhập Number of Transaction</t>
+  </si>
+  <si>
+    <t>Test characters in Account No and empty From Date</t>
+  </si>
+  <si>
+    <t>Test special characters in Account No and empty From Date</t>
+  </si>
+  <si>
+    <t>Test empty From Date and To Date</t>
+  </si>
+  <si>
+    <t>[From Date, To Date] để trống
+[Account No, Minimum Transaction Value, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>From Date: From Date Field must not be blank
+To Date: To Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Customised Statement
+4. Nhập Account No
+5. Chọn From Date
+6. Nhấn TAB
+7. Nhập To Date
+8. Nhấn TAB
+9. Nhập Minimum Transaction Value
+10. Nhập Number of Transaction</t>
+  </si>
+  <si>
+    <t>Test empty Account No and Minimum Transaction Value</t>
+  </si>
+  <si>
+    <t>[Account No, Minimum Transaction Value] để trống
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Account No: Account Number must not be blank
+From Date: From Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>Account No: Special characters are not allowed
+From Date: From Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>Account No: Characters are not allowed
+From Date: From Date Field must not be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account No: Account Number must not be blank
+Minimum Transaction Value: </t>
+  </si>
+  <si>
+    <t>Account No: Account Number must not be blank
+Minimum Transaction Value: Minimum Transaction Value must not be blank</t>
+  </si>
+  <si>
+    <t>Account No: Characters are not allowed
+Minimum Transaction Value: Minimum Transaction Value must not be blank</t>
+  </si>
+  <si>
+    <t>Account No: Special characters are not allowed
+Minimum Transaction Value: Minimum Transaction Value must not be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account No: Characters are not allowed
+Minimum Transaction Value: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account No: Special characters are not allowed
+Minimum Transaction Value: </t>
+  </si>
+  <si>
+    <t>Test characters in Account No and empty Minimum Transaction Value</t>
+  </si>
+  <si>
+    <t>Test special characters in Account No and empty Minimum Transaction Value</t>
+  </si>
+  <si>
+    <t>Test empty Account No and characters in Minimum Transaction Value</t>
+  </si>
+  <si>
+    <t>Test characters in Account No and characters in Minimum Transaction Value</t>
+  </si>
+  <si>
+    <t>Test special characters in Account No and characters in Minimum Transaction Value</t>
+  </si>
+  <si>
+    <t>[Account No] để trống
+[Minimum Transaction Value] điền ký tự
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>[Account No] điền ký tự
+[Minimum Transaction Value] để trống
+[To Date, From Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>[Account No] điền ký tự đặc biệt
+[Minimum Transaction Value] để trống
+[To Date, From Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>[Account No] điền ký tự
+[Minimum Transaction Value] điền ký tự
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>[Account No] điền ký tự đặc biệt
+[Minimum Transaction Value] điền ký tự
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Account No: Account Number must not be blank
+Minimum Transaction Value: Characters are not allowed</t>
+  </si>
+  <si>
+    <t>Account No: Characters are not allowed
+Minimum Transaction Value: Characters are not allowed</t>
+  </si>
+  <si>
+    <t>Account No: Special characters are not allowed
+Minimum Transaction Value: Characters are not allowed</t>
+  </si>
+  <si>
+    <t>Test empty Account No and specials characters in Minimum Transaction Value</t>
+  </si>
+  <si>
+    <t>[Account No] để trống
+[Minimum Transaction Value] điền ký tự đặc biệt
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Account No: Special characters are not allowed
+Minimum Transaction Value: Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Account No: Account Number must not be blank
+Minimum Transaction Value: Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Customised Statement
+4. Nhập Account No
+5. Nhập From Date
+6. Nhập To Date
+7. Chọn Minimum Transaction Value
+8. Nhấn TAB
+9. Nhập Number of Transaction</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Customised Statement
+4. Chọn Account No
+5. Nhấn TAB
+6. Nhập From Date
+7. Nhập To Date
+8. Chọn Minimum Transaction Value
+9. Nhấn TAB
+10. Nhập Number of Transaction</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Customised Statement
+4. Nhập Account No
+5. Nhập From Date
+6. Nhập To Date
+7. Nhập Minimum Transaction Value
+8. Nhập Number of Transaction</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Customised Statement
+4. Chọn Account No
+5. Nhấn TAB
+6. Nhập From Date
+7. Nhập To Date
+8. Nhập Minimum Transaction Value
+9. Nhập Number of Transaction</t>
+  </si>
+  <si>
+    <t>Test characters in Account No and specials characters in Minimum Transaction Value</t>
+  </si>
+  <si>
+    <t>[Account No] điền ký tự 
+[Minimum Transaction Value] điền ký tự đặc biệt
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>[Account No] điền ký tự đặc biệt 
+[Minimum Transaction Value] điền ký tự đặc biệt
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Test special characters in Account No and specials characters in Minimum Transaction Value</t>
+  </si>
+  <si>
+    <t>Account No: Characters are not allowed
+Minimum Transaction Value: Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Test null Minimum Transaction Value and Number of Transaction</t>
+  </si>
+  <si>
+    <t>Minimum Transaction Value:
+Number of Transaction:</t>
+  </si>
+  <si>
+    <t>Minimum Transaction Value: Minimum Transaction Value must not be blank
+Number of Transaction: Numer of Transaction must not be blank</t>
+  </si>
+  <si>
+    <t>TCSF15</t>
+  </si>
+  <si>
+    <t>TCSF16</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Customised Statement
+4. Nhập Account No
+5. Nhập From Date
+6. Nhập To Date
+7. Chọn Minimum Transaction Value
+8. Nhấn TAB
+9. Chọn Number of Transaction
+10. Nhấn TAB</t>
+  </si>
+  <si>
+    <t>Check browser behavior if submit invalid fields</t>
+  </si>
+  <si>
+    <t>[Minimum Transaction Value, Number of Transaction] để trống
+[Account No, From Date, To Date] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>[Account No, From Date, To Date, Number of Transaction, Minimum Transaction Value] điền không hợp lệ</t>
+  </si>
+  <si>
+    <t>display error</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>[Minimum Transaction Value, Number of Transaction] điền ký tự
+[Account No, From Date, To Date, ] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Customised Statement
+4. Nhập Account No
+5. Chọn From Date
+6. Nhấn TAB
+7. Nhập To Date
+8. Nhấn TAB
+9. Nhập Minimum Transaction Value
+10. Nhập Number of Transaction
+11. Nhấn submit</t>
+  </si>
+  <si>
+    <t>1. Mở guru99
+2. Đăng nhập
+3. Chọn Customised Statement
+4. Nhập Account No
+5. Nhập From Date
+6. Nhập To Date
+7. Nhập Minimum Transaction Value
+8. Nhập Number of Transaction
+9. Nhấn submit</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường:
+[Payers account no] để trống</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường:
+[Payers account no] chứa ký tự</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường:
+[Payers account no] chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường:
+[Payees account no] để trống</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường:
+[Payees account no] chứa ký tự</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường:
+[Payees account no] chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường:
+[Amount] để trống</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường:
+[Amount] chứa ký tự</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường:
+[Amount] chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi trường:
+[Description] để trống</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi submit trường
+[Payers account no, Payees account no] chứa ký tự</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi submit trường:
+[Payers account no] và [Payees account no] trùng nhau</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi submit trường
+[Payers account no] không thuộc quyền quản lý của manager</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No, From Date] để trống
+[To Date, Minimum Transaction Value, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No] điền ký tự
+[From Date] để trống
+[To Date, Minimum Transaction Value, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No] điền ký tự đặc biệt
+[From Date] để trống
+[To Date, Minimum Transaction Value, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[From Date, To Date] để trống
+[Account No, Minimum Transaction Value, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No, Minimum Transaction Value] để trống
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No] điền ký tự
+[Minimum Transaction Value] để trống
+[To Date, From Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No] điền ký tự đặc biệt
+[Minimum Transaction Value] để trống
+[To Date, From Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No] để trống
+[Minimum Transaction Value] điền ký tự
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No] điền ký tự
+[Minimum Transaction Value] điền ký tự
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No] điền ký tự đặc biệt
+[Minimum Transaction Value] điền ký tự
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No] để trống
+[Minimum Transaction Value] điền ký tự đặc biệt
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No] điền ký tự 
+[Minimum Transaction Value] điền ký tự đặc biệt
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No] điền ký tự đặc biệt 
+[Minimum Transaction Value] điền ký tự đặc biệt
+[From Date, To Date, Number of Transaction] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Minimum Transaction Value, Number of Transaction] để trống
+[Account No, From Date, To Date] điền hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Account No, From Date, To Date, Number of Transaction, Minimum Transaction Value] điền không hợp lệ</t>
+  </si>
+  <si>
+    <t>Xác định hành vi của hệ thống khi các trường:
+[Minimum Transaction Value, Number of Transaction] điền ký tự
+[Account No, From Date, To Date, ] điền hợp lệ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2035,6 +2539,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -2119,7 +2636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2486,6 +3003,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2501,7 +3055,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2668,6 +3222,110 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="7" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="7" xfId="7" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2678,9 +3336,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2696,27 +3351,69 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2734,83 +3431,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="7" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="7" xfId="7" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3161,10 +3781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26626E91-901C-4973-869E-B86E111D4465}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="B77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3179,15 +3799,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -3205,7 +3825,7 @@
       <c r="E2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="87" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -3213,16 +3833,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="73">
+      <c r="D3" s="108">
         <v>9</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -3231,123 +3851,123 @@
       <c r="F3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="65"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="65"/>
+      <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="65"/>
+      <c r="G5" s="101"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="65"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="65"/>
+      <c r="G7" s="101"/>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="101"/>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="101"/>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="101"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="101"/>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="108">
         <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -3356,158 +3976,158 @@
       <c r="F12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="101"/>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="101"/>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="101"/>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="101"/>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="65"/>
+      <c r="G16" s="101"/>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="101"/>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
       <c r="E18" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="101"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
       <c r="E19" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="101"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
       <c r="E20" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="111">
         <v>3</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="117" t="s">
+      <c r="F21" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="101"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
       <c r="E22" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="65"/>
+      <c r="G22" s="101"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
       <c r="E23" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="65"/>
+      <c r="G23" s="101"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -3525,594 +4145,799 @@
       <c r="E24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="91" t="s">
+      <c r="F24" s="65" t="s">
         <v>92</v>
       </c>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="102" t="s">
         <v>297</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="102" t="s">
         <v>294</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="102">
         <v>18</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F25" s="117" t="s">
+      <c r="F25" s="88" t="s">
         <v>326</v>
       </c>
-      <c r="G25" s="65"/>
+      <c r="G25" s="101"/>
     </row>
     <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F26" s="117" t="s">
+      <c r="F26" s="88" t="s">
         <v>327</v>
       </c>
-      <c r="G26" s="65"/>
+      <c r="G26" s="101"/>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F27" s="117" t="s">
+      <c r="F27" s="88" t="s">
         <v>328</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="101"/>
     </row>
     <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F28" s="117" t="s">
+      <c r="F28" s="88" t="s">
         <v>329</v>
       </c>
-      <c r="G28" s="65"/>
+      <c r="G28" s="101"/>
     </row>
     <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F29" s="117" t="s">
+      <c r="F29" s="88" t="s">
         <v>330</v>
       </c>
-      <c r="G29" s="65"/>
+      <c r="G29" s="101"/>
     </row>
     <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
       <c r="E30" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F30" s="117" t="s">
+      <c r="F30" s="88" t="s">
         <v>331</v>
       </c>
-      <c r="G30" s="65"/>
+      <c r="G30" s="101"/>
     </row>
     <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
       <c r="E31" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="117" t="s">
+      <c r="F31" s="88" t="s">
         <v>332</v>
       </c>
-      <c r="G31" s="65"/>
+      <c r="G31" s="101"/>
     </row>
     <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
       <c r="E32" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F32" s="117" t="s">
+      <c r="F32" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="G32" s="65"/>
+      <c r="G32" s="101"/>
     </row>
     <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F33" s="117" t="s">
+      <c r="F33" s="88" t="s">
         <v>334</v>
       </c>
-      <c r="G33" s="65"/>
+      <c r="G33" s="101"/>
     </row>
     <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F34" s="117" t="s">
+      <c r="F34" s="88" t="s">
         <v>335</v>
       </c>
-      <c r="G34" s="65"/>
+      <c r="G34" s="101"/>
     </row>
     <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
       <c r="E35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="117" t="s">
+      <c r="F35" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="G35" s="65"/>
+      <c r="G35" s="101"/>
     </row>
     <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
       <c r="E36" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F36" s="117" t="s">
+      <c r="F36" s="88" t="s">
         <v>337</v>
       </c>
-      <c r="G36" s="65"/>
+      <c r="G36" s="101"/>
     </row>
     <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
       <c r="E37" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F37" s="117" t="s">
+      <c r="F37" s="88" t="s">
         <v>338</v>
       </c>
-      <c r="G37" s="65"/>
+      <c r="G37" s="101"/>
     </row>
     <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
       <c r="E38" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="117" t="s">
+      <c r="F38" s="88" t="s">
         <v>339</v>
       </c>
-      <c r="G38" s="65"/>
+      <c r="G38" s="101"/>
     </row>
     <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
+      <c r="A39" s="103"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
       <c r="E39" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F39" s="117" t="s">
+      <c r="F39" s="88" t="s">
         <v>340</v>
       </c>
-      <c r="G39" s="65"/>
+      <c r="G39" s="101"/>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
       <c r="E40" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F40" s="117" t="s">
+      <c r="F40" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="G40" s="65"/>
+      <c r="G40" s="101"/>
     </row>
     <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
       <c r="E41" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F41" s="117" t="s">
+      <c r="F41" s="88" t="s">
         <v>342</v>
       </c>
-      <c r="G41" s="65"/>
+      <c r="G41" s="101"/>
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
+      <c r="A42" s="104"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
       <c r="E42" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F42" s="117" t="s">
+      <c r="F42" s="88" t="s">
         <v>343</v>
       </c>
-      <c r="G42" s="65"/>
+      <c r="G42" s="101"/>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="102" t="s">
         <v>354</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="D43" s="66">
+      <c r="D43" s="102">
         <v>10</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="117" t="s">
+      <c r="F43" s="88" t="s">
         <v>344</v>
       </c>
-      <c r="G43" s="65"/>
+      <c r="G43" s="101"/>
     </row>
     <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
       <c r="E44" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="117" t="s">
+      <c r="F44" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="G44" s="65"/>
+      <c r="G44" s="101"/>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
+      <c r="A45" s="103"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
       <c r="E45" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="117" t="s">
+      <c r="F45" s="88" t="s">
         <v>346</v>
       </c>
-      <c r="G45" s="65"/>
+      <c r="G45" s="101"/>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
       <c r="E46" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="117" t="s">
+      <c r="F46" s="88" t="s">
         <v>347</v>
       </c>
-      <c r="G46" s="65"/>
+      <c r="G46" s="101"/>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
       <c r="E47" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="117" t="s">
+      <c r="F47" s="88" t="s">
         <v>348</v>
       </c>
-      <c r="G47" s="65"/>
+      <c r="G47" s="101"/>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
       <c r="E48" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="117" t="s">
+      <c r="F48" s="88" t="s">
         <v>349</v>
       </c>
-      <c r="G48" s="65"/>
+      <c r="G48" s="101"/>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
+      <c r="A49" s="103"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
       <c r="E49" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="117" t="s">
+      <c r="F49" s="88" t="s">
         <v>350</v>
       </c>
-      <c r="G49" s="65"/>
+      <c r="G49" s="101"/>
     </row>
     <row r="50" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
       <c r="E50" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="117" t="s">
+      <c r="F50" s="88" t="s">
         <v>351</v>
       </c>
-      <c r="G50" s="65"/>
+      <c r="G50" s="101"/>
     </row>
     <row r="51" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
+      <c r="A51" s="103"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
       <c r="E51" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="117" t="s">
+      <c r="F51" s="88" t="s">
         <v>352</v>
       </c>
-      <c r="G51" s="65"/>
+      <c r="G51" s="101"/>
     </row>
     <row r="52" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
       <c r="E52" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F52" s="117" t="s">
+      <c r="F52" s="88" t="s">
         <v>353</v>
       </c>
-      <c r="G52" s="65"/>
+      <c r="G52" s="101"/>
     </row>
     <row r="53" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="114" t="s">
+      <c r="A53" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="B53" s="114" t="s">
+      <c r="B53" s="100" t="s">
         <v>421</v>
       </c>
-      <c r="C53" s="114" t="s">
+      <c r="C53" s="100" t="s">
         <v>422</v>
       </c>
-      <c r="D53" s="114">
+      <c r="D53" s="100">
         <v>18</v>
       </c>
-      <c r="E53" s="110" t="s">
+      <c r="E53" s="83" t="s">
         <v>355</v>
       </c>
-      <c r="F53" s="117" t="s">
-        <v>423</v>
-      </c>
-      <c r="G53" s="115"/>
+      <c r="F53" s="88" t="s">
+        <v>522</v>
+      </c>
+      <c r="G53" s="86"/>
     </row>
     <row r="54" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="114"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="102" t="s">
+      <c r="A54" s="100"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="F54" s="117" t="s">
-        <v>424</v>
-      </c>
-      <c r="G54" s="115"/>
+      <c r="F54" s="88" t="s">
+        <v>523</v>
+      </c>
+      <c r="G54" s="86"/>
     </row>
     <row r="55" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="114"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="102" t="s">
+      <c r="A55" s="100"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="75" t="s">
         <v>357</v>
       </c>
-      <c r="F55" s="117" t="s">
+      <c r="F55" s="88" t="s">
+        <v>524</v>
+      </c>
+      <c r="G55" s="86"/>
+    </row>
+    <row r="56" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="100"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="F56" s="88" t="s">
+        <v>525</v>
+      </c>
+      <c r="G56" s="86"/>
+    </row>
+    <row r="57" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="100"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="F57" s="88" t="s">
+        <v>526</v>
+      </c>
+      <c r="G57" s="86"/>
+    </row>
+    <row r="58" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="100"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="F58" s="88" t="s">
+        <v>527</v>
+      </c>
+      <c r="G58" s="86"/>
+    </row>
+    <row r="59" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="100"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="F59" s="88" t="s">
+        <v>528</v>
+      </c>
+      <c r="G59" s="86"/>
+    </row>
+    <row r="60" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="100"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="F60" s="88" t="s">
+        <v>529</v>
+      </c>
+      <c r="G60" s="86"/>
+    </row>
+    <row r="61" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="100"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="F61" s="88" t="s">
+        <v>530</v>
+      </c>
+      <c r="G61" s="86"/>
+    </row>
+    <row r="62" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="100"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="75" t="s">
+        <v>364</v>
+      </c>
+      <c r="F62" s="88" t="s">
+        <v>531</v>
+      </c>
+      <c r="G62" s="86"/>
+    </row>
+    <row r="63" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="100"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="F63" s="88" t="s">
+        <v>532</v>
+      </c>
+      <c r="G63" s="86"/>
+    </row>
+    <row r="64" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="100"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="100"/>
+      <c r="E64" s="75" t="s">
+        <v>366</v>
+      </c>
+      <c r="F64" s="88" t="s">
+        <v>533</v>
+      </c>
+      <c r="G64" s="86"/>
+    </row>
+    <row r="65" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="100"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="F65" s="88" t="s">
+        <v>428</v>
+      </c>
+      <c r="G65" s="86"/>
+    </row>
+    <row r="66" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="100"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="75" t="s">
+        <v>368</v>
+      </c>
+      <c r="F66" s="88" t="s">
+        <v>534</v>
+      </c>
+      <c r="G66" s="86"/>
+    </row>
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="100" t="s">
+        <v>420</v>
+      </c>
+      <c r="B67" s="100" t="s">
+        <v>421</v>
+      </c>
+      <c r="C67" s="100" t="s">
+        <v>422</v>
+      </c>
+      <c r="D67" s="100">
+        <v>16</v>
+      </c>
+      <c r="E67" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="F67" s="88" t="s">
+        <v>535</v>
+      </c>
+      <c r="G67" s="99"/>
+    </row>
+    <row r="68" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A68" s="100"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="F68" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="G68" s="99"/>
+    </row>
+    <row r="69" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A69" s="100"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="75" t="s">
+        <v>433</v>
+      </c>
+      <c r="F69" s="88" t="s">
+        <v>537</v>
+      </c>
+      <c r="G69" s="99"/>
+    </row>
+    <row r="70" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="100"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="G55" s="115"/>
-    </row>
-    <row r="56" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="114"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="102" t="s">
-        <v>358</v>
-      </c>
-      <c r="F56" s="117" t="s">
-        <v>425</v>
-      </c>
-      <c r="G56" s="115"/>
-    </row>
-    <row r="57" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="114"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="102" t="s">
-        <v>359</v>
-      </c>
-      <c r="F57" s="117" t="s">
-        <v>426</v>
-      </c>
-      <c r="G57" s="115"/>
-    </row>
-    <row r="58" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="114"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="102" t="s">
-        <v>360</v>
-      </c>
-      <c r="F58" s="117" t="s">
+      <c r="F70" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G70" s="99"/>
+    </row>
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="100"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="75" t="s">
         <v>435</v>
       </c>
-      <c r="G58" s="115"/>
-    </row>
-    <row r="59" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="114"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="102" t="s">
-        <v>361</v>
-      </c>
-      <c r="F59" s="117" t="s">
-        <v>428</v>
-      </c>
-      <c r="G59" s="115"/>
-    </row>
-    <row r="60" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="114"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="102" t="s">
-        <v>362</v>
-      </c>
-      <c r="F60" s="117" t="s">
-        <v>427</v>
-      </c>
-      <c r="G60" s="115"/>
-    </row>
-    <row r="61" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="114"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="102" t="s">
-        <v>363</v>
-      </c>
-      <c r="F61" s="117" t="s">
-        <v>431</v>
-      </c>
-      <c r="G61" s="115"/>
-    </row>
-    <row r="62" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="114"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="102" t="s">
-        <v>364</v>
-      </c>
-      <c r="F62" s="117" t="s">
+      <c r="F71" s="88" t="s">
+        <v>539</v>
+      </c>
+      <c r="G71" s="99"/>
+    </row>
+    <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="100"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="100"/>
+      <c r="E72" s="75" t="s">
         <v>436</v>
       </c>
-      <c r="G62" s="115"/>
-    </row>
-    <row r="63" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="114"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="102" t="s">
-        <v>365</v>
-      </c>
-      <c r="F63" s="117" t="s">
+      <c r="F72" s="88" t="s">
+        <v>540</v>
+      </c>
+      <c r="G72" s="99"/>
+    </row>
+    <row r="73" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="100"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="100"/>
+      <c r="E73" s="75" t="s">
         <v>437</v>
       </c>
-      <c r="G63" s="115"/>
-    </row>
-    <row r="64" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="114"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="102" t="s">
-        <v>366</v>
-      </c>
-      <c r="F64" s="117" t="s">
+      <c r="F73" s="88" t="s">
+        <v>541</v>
+      </c>
+      <c r="G73" s="99"/>
+    </row>
+    <row r="74" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="100"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="75" t="s">
+        <v>438</v>
+      </c>
+      <c r="F74" s="88" t="s">
+        <v>542</v>
+      </c>
+      <c r="G74" s="99"/>
+    </row>
+    <row r="75" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="100"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="100"/>
+      <c r="E75" s="75" t="s">
         <v>439</v>
       </c>
-      <c r="G64" s="115"/>
-    </row>
-    <row r="65" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="114"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="102" t="s">
-        <v>367</v>
-      </c>
-      <c r="F65" s="117" t="s">
+      <c r="F75" s="88" t="s">
+        <v>543</v>
+      </c>
+      <c r="G75" s="99"/>
+    </row>
+    <row r="76" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="100"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="75" t="s">
         <v>440</v>
       </c>
-      <c r="G65" s="115"/>
-    </row>
-    <row r="66" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="114"/>
-      <c r="B66" s="114"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="102" t="s">
-        <v>368</v>
-      </c>
-      <c r="F66" s="117" t="s">
+      <c r="F76" s="88" t="s">
+        <v>544</v>
+      </c>
+      <c r="G76" s="99"/>
+    </row>
+    <row r="77" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A77" s="100"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="75" t="s">
+        <v>441</v>
+      </c>
+      <c r="F77" s="88" t="s">
+        <v>545</v>
+      </c>
+      <c r="G77" s="99"/>
+    </row>
+    <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A78" s="100"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="75" t="s">
         <v>442</v>
       </c>
-      <c r="G66" s="115"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F67"/>
+      <c r="F78" s="88" t="s">
+        <v>546</v>
+      </c>
+      <c r="G78" s="99"/>
+    </row>
+    <row r="79" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A79" s="100"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="75" t="s">
+        <v>443</v>
+      </c>
+      <c r="F79" s="88" t="s">
+        <v>547</v>
+      </c>
+      <c r="G79" s="99"/>
+    </row>
+    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="100"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="75" t="s">
+        <v>444</v>
+      </c>
+      <c r="F80" s="88" t="s">
+        <v>548</v>
+      </c>
+      <c r="G80" s="99"/>
+    </row>
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="100"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="75" t="s">
+        <v>511</v>
+      </c>
+      <c r="F81" s="88" t="s">
+        <v>549</v>
+      </c>
+      <c r="G81" s="99"/>
+    </row>
+    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="100"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="100"/>
+      <c r="D82" s="100"/>
+      <c r="E82" s="75" t="s">
+        <v>512</v>
+      </c>
+      <c r="F82" s="88" t="s">
+        <v>550</v>
+      </c>
+      <c r="G82" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A53:A66"/>
-    <mergeCell ref="B53:B66"/>
-    <mergeCell ref="C53:C66"/>
-    <mergeCell ref="D53:D66"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D12:D20"/>
+  <mergeCells count="41">
     <mergeCell ref="G12:G20"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="G3:G11"/>
@@ -4120,10 +4945,10 @@
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D12:D20"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="A25:A42"/>
@@ -4135,6 +4960,14 @@
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="G25:G27"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A67:A82"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="C67:C82"/>
+    <mergeCell ref="D67:D82"/>
     <mergeCell ref="G49:G52"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
@@ -4142,6 +4975,10 @@
     <mergeCell ref="D43:D52"/>
     <mergeCell ref="G46:G48"/>
     <mergeCell ref="G43:G45"/>
+    <mergeCell ref="A53:A66"/>
+    <mergeCell ref="B53:B66"/>
+    <mergeCell ref="C53:C66"/>
+    <mergeCell ref="D53:D66"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4149,12 +4986,1109 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1169F1E-6FE5-455C-8EA4-3D5B119DC046}">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView topLeftCell="D17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="66" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="70" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="70" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="66" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="66" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="66" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="66" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" style="70" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" style="70" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="67" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="66" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="70"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="118" t="s">
+        <v>411</v>
+      </c>
+      <c r="M1" s="118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>445</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>446</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>447</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+    </row>
+    <row r="3" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>431</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H3" s="83">
+        <v>50</v>
+      </c>
+      <c r="I3" s="83">
+        <v>5</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>472</v>
+      </c>
+      <c r="K3" s="84" t="s">
+        <v>472</v>
+      </c>
+      <c r="L3" s="85" t="s">
+        <v>389</v>
+      </c>
+      <c r="M3" s="72" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>463</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>487</v>
+      </c>
+      <c r="F4" s="75"/>
+      <c r="G4" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H4" s="83">
+        <v>50</v>
+      </c>
+      <c r="I4" s="83">
+        <v>5</v>
+      </c>
+      <c r="J4" s="84" t="s">
+        <v>474</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>474</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>463</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="75"/>
+      <c r="G5" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H5" s="83">
+        <v>50</v>
+      </c>
+      <c r="I5" s="83">
+        <v>5</v>
+      </c>
+      <c r="J5" s="84" t="s">
+        <v>473</v>
+      </c>
+      <c r="K5" s="84" t="s">
+        <v>473</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="M5" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>469</v>
+      </c>
+      <c r="E6" s="78">
+        <v>139454</v>
+      </c>
+      <c r="F6" s="75"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="83">
+        <v>50</v>
+      </c>
+      <c r="I6" s="83">
+        <v>5</v>
+      </c>
+      <c r="J6" s="84" t="s">
+        <v>468</v>
+      </c>
+      <c r="K6" s="84" t="s">
+        <v>468</v>
+      </c>
+      <c r="L6" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="M6" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>471</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="78"/>
+      <c r="F7" s="80">
+        <v>45588</v>
+      </c>
+      <c r="G7" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75">
+        <v>5</v>
+      </c>
+      <c r="J7" s="84" t="s">
+        <v>476</v>
+      </c>
+      <c r="K7" s="84" t="s">
+        <v>475</v>
+      </c>
+      <c r="L7" s="98" t="s">
+        <v>375</v>
+      </c>
+      <c r="M7" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="83" t="s">
+        <v>436</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>481</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>488</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>499</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>487</v>
+      </c>
+      <c r="F8" s="80">
+        <v>45588</v>
+      </c>
+      <c r="G8" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83">
+        <v>5</v>
+      </c>
+      <c r="J8" s="84" t="s">
+        <v>477</v>
+      </c>
+      <c r="K8" s="84" t="s">
+        <v>479</v>
+      </c>
+      <c r="L8" s="98" t="s">
+        <v>375</v>
+      </c>
+      <c r="M8" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="83" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>489</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>499</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9" s="80">
+        <v>45588</v>
+      </c>
+      <c r="G9" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83">
+        <v>5</v>
+      </c>
+      <c r="J9" s="84" t="s">
+        <v>478</v>
+      </c>
+      <c r="K9" s="84" t="s">
+        <v>480</v>
+      </c>
+      <c r="L9" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="M9" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="83" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>486</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>502</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="80">
+        <v>45588</v>
+      </c>
+      <c r="G10" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H10" s="83" t="s">
+        <v>487</v>
+      </c>
+      <c r="I10" s="83">
+        <v>5</v>
+      </c>
+      <c r="J10" s="84" t="s">
+        <v>492</v>
+      </c>
+      <c r="K10" s="84" t="s">
+        <v>492</v>
+      </c>
+      <c r="L10" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="M10" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>490</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>501</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>487</v>
+      </c>
+      <c r="F11" s="80">
+        <v>45588</v>
+      </c>
+      <c r="G11" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H11" s="83" t="s">
+        <v>487</v>
+      </c>
+      <c r="I11" s="83">
+        <v>5</v>
+      </c>
+      <c r="J11" s="84" t="s">
+        <v>493</v>
+      </c>
+      <c r="K11" s="84" t="s">
+        <v>493</v>
+      </c>
+      <c r="L11" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="M11" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>491</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>501</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12" s="80">
+        <v>45588</v>
+      </c>
+      <c r="G12" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H12" s="83" t="s">
+        <v>487</v>
+      </c>
+      <c r="I12" s="83">
+        <v>5</v>
+      </c>
+      <c r="J12" s="84" t="s">
+        <v>494</v>
+      </c>
+      <c r="K12" s="84" t="s">
+        <v>494</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="M12" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>496</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>502</v>
+      </c>
+      <c r="E13" s="78"/>
+      <c r="F13" s="80">
+        <v>45588</v>
+      </c>
+      <c r="G13" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="I13" s="83">
+        <v>5</v>
+      </c>
+      <c r="J13" s="84" t="s">
+        <v>498</v>
+      </c>
+      <c r="K13" s="84" t="s">
+        <v>498</v>
+      </c>
+      <c r="L13" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="M13" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="83" t="s">
+        <v>442</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>506</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>501</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>487</v>
+      </c>
+      <c r="F14" s="80">
+        <v>45588</v>
+      </c>
+      <c r="G14" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="I14" s="78">
+        <v>5</v>
+      </c>
+      <c r="J14" s="84" t="s">
+        <v>507</v>
+      </c>
+      <c r="K14" s="84" t="s">
+        <v>507</v>
+      </c>
+      <c r="L14" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="M14" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>503</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>501</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="F15" s="80">
+        <v>45588</v>
+      </c>
+      <c r="G15" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="I15" s="78">
+        <v>5</v>
+      </c>
+      <c r="J15" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="K15" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="L15" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="83" t="s">
+        <v>444</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>508</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>515</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>513</v>
+      </c>
+      <c r="E16" s="78">
+        <v>139454</v>
+      </c>
+      <c r="F16" s="80">
+        <v>45588</v>
+      </c>
+      <c r="G16" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="84" t="s">
+        <v>510</v>
+      </c>
+      <c r="K16" s="84" t="s">
+        <v>509</v>
+      </c>
+      <c r="L16" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="M16" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>514</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>520</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78" t="s">
+        <v>487</v>
+      </c>
+      <c r="I17" s="78" t="s">
+        <v>487</v>
+      </c>
+      <c r="J17" s="84" t="s">
+        <v>517</v>
+      </c>
+      <c r="K17" s="84" t="s">
+        <v>517</v>
+      </c>
+      <c r="L17" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="M17" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>508</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>519</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>521</v>
+      </c>
+      <c r="E18" s="78">
+        <v>139454</v>
+      </c>
+      <c r="F18" s="80">
+        <v>45588</v>
+      </c>
+      <c r="G18" s="97">
+        <v>45595</v>
+      </c>
+      <c r="H18" s="78" t="s">
+        <v>487</v>
+      </c>
+      <c r="I18" s="78" t="s">
+        <v>487</v>
+      </c>
+      <c r="J18" s="84" t="s">
+        <v>517</v>
+      </c>
+      <c r="K18" s="84" t="s">
+        <v>518</v>
+      </c>
+      <c r="L18" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="M18" s="74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="47"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="47"/>
+    </row>
+    <row r="21" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="93" t="s">
+        <v>449</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>445</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>446</v>
+      </c>
+      <c r="E21" s="94" t="s">
+        <v>447</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>448</v>
+      </c>
+      <c r="G21" s="70"/>
+      <c r="H21" s="120" t="s">
+        <v>453</v>
+      </c>
+      <c r="I21" s="121"/>
+      <c r="J21" s="122"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="92">
+        <v>1</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="F22" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="H22" s="120" t="s">
+        <v>454</v>
+      </c>
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="89">
+        <v>2</v>
+      </c>
+      <c r="B23" s="96" t="s">
+        <v>450</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="120" t="s">
+        <v>455</v>
+      </c>
+      <c r="I23" s="123"/>
+      <c r="J23" s="124"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89">
+        <v>3</v>
+      </c>
+      <c r="B24" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="C24" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="D24" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="H24" s="112" t="s">
+        <v>456</v>
+      </c>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="89">
+        <v>4</v>
+      </c>
+      <c r="B25" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="D25" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="H25" s="115" t="s">
+        <v>457</v>
+      </c>
+      <c r="I25" s="116"/>
+      <c r="J25" s="117"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="89">
+        <v>5</v>
+      </c>
+      <c r="B26" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="C26" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="F26" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="J26" s="90"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="89">
+        <v>6</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D27" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E27" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="F27" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="90"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="89">
+        <v>7</v>
+      </c>
+      <c r="B28" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="C28" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D28" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="F28" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="90"/>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="89">
+        <v>8</v>
+      </c>
+      <c r="B29" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" s="96" t="s">
+        <v>450</v>
+      </c>
+      <c r="F29" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="90"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="89">
+        <v>9</v>
+      </c>
+      <c r="B30" s="96" t="s">
+        <v>450</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30" s="96" t="s">
+        <v>450</v>
+      </c>
+      <c r="F30" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="90"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="89">
+        <v>10</v>
+      </c>
+      <c r="B31" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="C31" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" s="96" t="s">
+        <v>450</v>
+      </c>
+      <c r="F31" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="90"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="89">
+        <v>11</v>
+      </c>
+      <c r="B32" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F32" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="90"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="89">
+        <v>12</v>
+      </c>
+      <c r="B33" s="96" t="s">
+        <v>450</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E33" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F33" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" s="90"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="89">
+        <v>13</v>
+      </c>
+      <c r="B34" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="C34" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E34" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F34" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" s="90"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="89">
+        <v>14</v>
+      </c>
+      <c r="B35" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="F35" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="J35" s="90"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FD9F69-5E8E-4EB9-8A9D-F5EBADDD3D41}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A17" zoomScale="82" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4179,48 +6113,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="86" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="86" t="s">
+      <c r="P1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="79" t="s">
+      <c r="Q1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="134" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
       <c r="E2" s="35" t="s">
         <v>157</v>
       </c>
@@ -4251,10 +6185,10 @@
       <c r="N2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="85"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="134"/>
     </row>
     <row r="3" spans="1:18" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -5237,11 +7171,11 @@
         <v>165</v>
       </c>
       <c r="J23" s="53"/>
-      <c r="K23" s="76" t="s">
+      <c r="K23" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="L23" s="77"/>
-      <c r="M23" s="78"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="133"/>
       <c r="N23" s="57"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -5273,11 +7207,11 @@
         <v>183</v>
       </c>
       <c r="J24" s="53"/>
-      <c r="K24" s="76" t="s">
+      <c r="K24" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="L24" s="77"/>
-      <c r="M24" s="78"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="133"/>
       <c r="N24" s="57"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -5309,11 +7243,11 @@
         <v>282</v>
       </c>
       <c r="J25" s="53"/>
-      <c r="K25" s="76" t="s">
+      <c r="K25" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="L25" s="77"/>
-      <c r="M25" s="78"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="133"/>
       <c r="N25" s="57"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -5525,11 +7459,11 @@
         <v>282</v>
       </c>
       <c r="J31" s="53"/>
-      <c r="K31" s="76" t="s">
+      <c r="K31" s="131" t="s">
         <v>292</v>
       </c>
-      <c r="L31" s="77"/>
-      <c r="M31" s="78"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="133"/>
       <c r="N31" s="57"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -5829,8 +7763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BD5CD2-0B71-4131-BD1C-40990987AEF2}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5848,50 +7782,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="79" t="s">
+      <c r="F1" s="137"/>
+      <c r="G1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="134" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
       <c r="E2" s="24" t="s">
         <v>113</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="85"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="134"/>
     </row>
     <row r="3" spans="1:10" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -6229,7 +8163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A96FD1D-8811-461F-88BC-5CD141AE487A}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -6249,41 +8183,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85" t="s">
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="134" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
@@ -6293,10 +8227,10 @@
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -6712,7 +8646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1587B-C655-4764-8C94-B276F1EFE666}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -6732,41 +8666,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85" t="s">
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="134" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
@@ -6776,10 +8710,10 @@
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -7216,50 +9150,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85" t="s">
+      <c r="F1" s="134"/>
+      <c r="G1" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="134" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="5" t="s">
         <v>95</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
     </row>
     <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -7429,44 +9363,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="134" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:9" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -7526,606 +9460,606 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3279048-D7A1-4E65-8F63-44B6D4C7CD4D}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="94" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="94" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="96" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" style="94" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="92" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="95" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="92" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="92" customWidth="1"/>
-    <col min="9" max="9" width="40.5703125" style="96" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" style="96" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="93" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="92" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="94"/>
+    <col min="1" max="1" width="20.140625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="70" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="69" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="66" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" style="70" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" style="70" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="67" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="66" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97" t="s">
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="118" t="s">
         <v>411</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="118" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="98" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
     </row>
     <row r="3" spans="1:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="83" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="84" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="84" t="s">
         <v>369</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="84" t="s">
         <v>390</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110">
+      <c r="E3" s="83"/>
+      <c r="F3" s="83">
         <v>70234345103</v>
       </c>
-      <c r="G3" s="110">
+      <c r="G3" s="83">
         <v>100000</v>
       </c>
-      <c r="H3" s="110" t="s">
+      <c r="H3" s="83" t="s">
         <v>373</v>
       </c>
-      <c r="I3" s="111" t="s">
+      <c r="I3" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="J3" s="111" t="s">
+      <c r="J3" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="K3" s="112" t="s">
+      <c r="K3" s="85" t="s">
         <v>389</v>
       </c>
-      <c r="L3" s="99" t="s">
+      <c r="L3" s="72" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="76" t="s">
         <v>374</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="102">
+      <c r="F4" s="75">
         <v>70234345103</v>
       </c>
-      <c r="G4" s="102">
+      <c r="G4" s="75">
         <v>100000</v>
       </c>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="77" t="s">
         <v>388</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="77" t="s">
         <v>388</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="L4" s="101" t="s">
+      <c r="L4" s="74" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="75" t="s">
         <v>357</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="76" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="103" t="s">
-        <v>433</v>
-      </c>
-      <c r="D5" s="103" t="s">
+      <c r="C5" s="76" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>374</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="78" t="s">
         <v>387</v>
       </c>
-      <c r="F5" s="102">
+      <c r="F5" s="75">
         <v>70234345103</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="75">
         <v>100000</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="K5" s="100" t="s">
+      <c r="K5" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="L5" s="101" t="s">
+      <c r="L5" s="74" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="75" t="s">
         <v>358</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="76" t="s">
         <v>383</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="76" t="s">
         <v>403</v>
       </c>
-      <c r="E6" s="102">
+      <c r="E6" s="75">
         <v>69234785103</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102">
+      <c r="F6" s="75"/>
+      <c r="G6" s="75">
         <v>100000</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="H6" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="J6" s="103" t="s">
+      <c r="J6" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="K6" s="100" t="s">
+      <c r="K6" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="74" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="75" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="D7" s="103" t="s">
+      <c r="D7" s="76" t="s">
         <v>374</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="75">
         <v>69234785103</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="75" t="s">
         <v>377</v>
       </c>
-      <c r="G7" s="102">
+      <c r="G7" s="75">
         <v>100000</v>
       </c>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="77" t="s">
         <v>395</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="77" t="s">
         <v>395</v>
       </c>
-      <c r="K7" s="100" t="s">
+      <c r="K7" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="L7" s="101" t="s">
+      <c r="L7" s="74" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="75" t="s">
         <v>360</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="C8" s="103" t="s">
-        <v>432</v>
-      </c>
-      <c r="D8" s="103" t="s">
+      <c r="C8" s="76" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="76" t="s">
         <v>374</v>
       </c>
-      <c r="E8" s="102">
+      <c r="E8" s="75">
         <v>69234785103</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="78" t="s">
         <v>387</v>
       </c>
-      <c r="G8" s="102">
+      <c r="G8" s="75">
         <v>100000</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="H8" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="77" t="s">
         <v>394</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="77" t="s">
         <v>394</v>
       </c>
-      <c r="K8" s="100" t="s">
+      <c r="K8" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="L8" s="101" t="s">
+      <c r="L8" s="74" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="76" t="s">
         <v>398</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="76" t="s">
         <v>391</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="76" t="s">
         <v>404</v>
       </c>
-      <c r="E9" s="102">
+      <c r="E9" s="75">
         <v>69234785103</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="75">
         <v>70234345103</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102" t="s">
+      <c r="G9" s="75"/>
+      <c r="H9" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="76" t="s">
         <v>384</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="J9" s="76" t="s">
         <v>385</v>
       </c>
-      <c r="K9" s="106" t="s">
+      <c r="K9" s="79" t="s">
         <v>375</v>
       </c>
-      <c r="L9" s="101" t="s">
+      <c r="L9" s="74" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="76" t="s">
         <v>396</v>
       </c>
-      <c r="C10" s="103" t="s">
-        <v>429</v>
-      </c>
-      <c r="D10" s="103" t="s">
+      <c r="C10" s="76" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" s="76" t="s">
         <v>374</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="75">
         <v>69234785103</v>
       </c>
-      <c r="F10" s="102">
+      <c r="F10" s="75">
         <v>70234345103</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="81" t="s">
         <v>405</v>
       </c>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="81" t="s">
         <v>405</v>
       </c>
-      <c r="K10" s="100" t="s">
+      <c r="K10" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="L10" s="101" t="s">
+      <c r="L10" s="74" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="75" t="s">
         <v>363</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="C11" s="103" t="s">
-        <v>430</v>
-      </c>
-      <c r="D11" s="103" t="s">
+      <c r="C11" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" s="76" t="s">
         <v>374</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="75">
         <v>69234785103</v>
       </c>
-      <c r="F11" s="102">
+      <c r="F11" s="75">
         <v>70234345103</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="82" t="s">
         <v>387</v>
       </c>
-      <c r="H11" s="102" t="s">
+      <c r="H11" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="I11" s="103" t="s">
+      <c r="I11" s="76" t="s">
         <v>406</v>
       </c>
-      <c r="J11" s="103" t="s">
+      <c r="J11" s="76" t="s">
         <v>406</v>
       </c>
-      <c r="K11" s="106" t="s">
+      <c r="K11" s="79" t="s">
         <v>375</v>
       </c>
-      <c r="L11" s="101" t="s">
+      <c r="L11" s="74" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="76" t="s">
         <v>407</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="76" t="s">
         <v>408</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="76" t="s">
         <v>409</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="75">
         <v>69234785103</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="75">
         <v>70234345103</v>
       </c>
-      <c r="G12" s="102">
+      <c r="G12" s="75">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="103" t="s">
+      <c r="H12" s="75"/>
+      <c r="I12" s="76" t="s">
         <v>384</v>
       </c>
-      <c r="J12" s="103" t="s">
+      <c r="J12" s="76" t="s">
         <v>385</v>
       </c>
-      <c r="K12" s="106" t="s">
+      <c r="K12" s="79" t="s">
         <v>375</v>
       </c>
-      <c r="L12" s="101" t="s">
+      <c r="L12" s="74" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="76" t="s">
         <v>410</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="76" t="s">
         <v>416</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="76" t="s">
         <v>414</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="75" t="s">
         <v>417</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="75" t="s">
         <v>418</v>
       </c>
-      <c r="G13" s="102">
+      <c r="G13" s="75">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="H13" s="102" t="s">
+      <c r="H13" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="I13" s="103" t="s">
+      <c r="I13" s="76" t="s">
         <v>419</v>
       </c>
-      <c r="J13" s="103" t="s">
+      <c r="J13" s="76" t="s">
         <v>419</v>
       </c>
-      <c r="K13" s="100" t="s">
+      <c r="K13" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="L13" s="101" t="s">
+      <c r="L13" s="74" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="75" t="s">
         <v>366</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="76" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="103" t="s">
-        <v>438</v>
-      </c>
-      <c r="D14" s="103" t="s">
+      <c r="C14" s="76" t="s">
+        <v>427</v>
+      </c>
+      <c r="D14" s="76" t="s">
         <v>414</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="75">
         <v>69234785103</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="75">
         <v>69234785103</v>
       </c>
-      <c r="G14" s="102">
+      <c r="G14" s="75">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="H14" s="102" t="s">
+      <c r="H14" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="76" t="s">
         <v>413</v>
       </c>
-      <c r="J14" s="103" t="s">
+      <c r="J14" s="76" t="s">
         <v>413</v>
       </c>
-      <c r="K14" s="100" t="s">
+      <c r="K14" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="L14" s="101" t="s">
+      <c r="L14" s="74" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="75" t="s">
         <v>367</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="76" t="s">
         <v>410</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="76" t="s">
         <v>412</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="76" t="s">
         <v>414</v>
       </c>
-      <c r="E15" s="102">
+      <c r="E15" s="75">
         <v>139454</v>
       </c>
-      <c r="F15" s="102">
+      <c r="F15" s="75">
         <v>139455</v>
       </c>
-      <c r="G15" s="102">
+      <c r="G15" s="75">
         <v>999999</v>
       </c>
-      <c r="H15" s="102" t="s">
+      <c r="H15" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="I15" s="103" t="s">
+      <c r="I15" s="76" t="s">
         <v>415</v>
       </c>
-      <c r="J15" s="103" t="s">
+      <c r="J15" s="76" t="s">
         <v>415</v>
       </c>
-      <c r="K15" s="100" t="s">
+      <c r="K15" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="L15" s="101" t="s">
+      <c r="L15" s="74" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="75" t="s">
         <v>368</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="76" t="s">
         <v>410</v>
       </c>
-      <c r="C16" s="103" t="s">
-        <v>441</v>
-      </c>
-      <c r="D16" s="103" t="s">
+      <c r="C16" s="76" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" s="76" t="s">
         <v>414</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E16" s="75">
         <v>1</v>
       </c>
-      <c r="F16" s="102">
+      <c r="F16" s="75">
         <v>139455</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="75">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="H16" s="102" t="s">
+      <c r="H16" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="I16" s="103" t="s">
-        <v>443</v>
-      </c>
-      <c r="J16" s="103" t="s">
-        <v>443</v>
-      </c>
-      <c r="K16" s="100" t="s">
+      <c r="I16" s="76" t="s">
+        <v>430</v>
+      </c>
+      <c r="J16" s="76" t="s">
+        <v>430</v>
+      </c>
+      <c r="K16" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="L16" s="101" t="s">
+      <c r="L16" s="74" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8136,238 +10070,238 @@
       <c r="C18" s="47"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="96"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="92"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="66"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="96"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="92"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="66"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="96"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="92"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="66"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="96"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="92"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="66"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="96"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="92"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="66"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="96"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="92"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="66"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="96"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="92"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="66"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="96"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="92"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="66"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="96"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="92"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="66"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="96"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="92"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="66"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="96"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="92"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="66"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="96"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="92"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="66"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="96"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="92"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="66"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="96"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="92"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="66"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="92"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="66"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="96"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="92"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="66"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="96"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="92"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="66"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="96"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="92"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="66"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Test Scenario and Test Case.xlsx
+++ b/Test Scenario and Test Case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chapter 6-Kiểm thử tự động\KiemThu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kiểm thử\KiemThu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB6DE6-0126-442A-B04B-100C99419831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BF76ED-0483-4E45-BE6E-5E3C2B5F5A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{D53DA981-08B6-45D9-9628-8237139AF7C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{D53DA981-08B6-45D9-9628-8237139AF7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario " sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="550">
   <si>
     <t>Test Steps</t>
   </si>
@@ -171,9 +171,6 @@
 Description: Description can not be blank
 Alert: Please fill all fields
 </t>
-  </si>
-  <si>
-    <t>Alert: Account doesn't exist</t>
   </si>
   <si>
     <t xml:space="preserve">Go back home page
@@ -3323,19 +3320,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3351,65 +3336,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3420,6 +3360,24 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3431,6 +3389,45 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3799,1156 +3796,1160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="A1" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="103"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="G2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="C3" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="108">
+      <c r="D3" s="104">
         <v>9</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="101"/>
+        <v>45</v>
+      </c>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="101"/>
+        <v>46</v>
+      </c>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="101"/>
+        <v>47</v>
+      </c>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="101"/>
+        <v>48</v>
+      </c>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="101"/>
+        <v>49</v>
+      </c>
+      <c r="G7" s="100"/>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="101"/>
+        <v>50</v>
+      </c>
+      <c r="G8" s="100"/>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="101"/>
+        <v>51</v>
+      </c>
+      <c r="G9" s="100"/>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="101"/>
+        <v>52</v>
+      </c>
+      <c r="G10" s="100"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="101"/>
+        <v>53</v>
+      </c>
+      <c r="G11" s="100"/>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="D12" s="104">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="108" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="108">
-        <v>9</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="100"/>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="101"/>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="100"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="101"/>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="100"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="105"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="101"/>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="7" t="s">
+      <c r="G15" s="100"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="105"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="101"/>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="7" t="s">
+      <c r="G16" s="100"/>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="101"/>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="100"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="101"/>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="7" t="s">
+      <c r="G18" s="100"/>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="105"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="101"/>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="100"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="101"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="100"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="101"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="111" t="s">
+      <c r="B21" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="111" t="s">
+      <c r="C21" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="D21" s="110">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="111">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="100"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="110"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="88" t="s">
+      <c r="F22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="101"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="7" t="s">
+      <c r="G22" s="100"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="101"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="101"/>
+      <c r="G23" s="100"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="65" t="s">
-        <v>92</v>
-      </c>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="107" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="107" t="s">
         <v>297</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="D25" s="107">
+        <v>18</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F25" s="88" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" s="100"/>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26" s="100"/>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" s="100"/>
+    </row>
+    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F28" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28" s="100"/>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F29" s="88" t="s">
+        <v>329</v>
+      </c>
+      <c r="G29" s="100"/>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="G30" s="100"/>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F31" s="88" t="s">
+        <v>331</v>
+      </c>
+      <c r="G31" s="100"/>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F32" s="88" t="s">
+        <v>332</v>
+      </c>
+      <c r="G32" s="100"/>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33" s="100"/>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="88" t="s">
+        <v>334</v>
+      </c>
+      <c r="G34" s="100"/>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="88" t="s">
+        <v>335</v>
+      </c>
+      <c r="G35" s="100"/>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="88" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" s="100"/>
+    </row>
+    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="108"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" s="88" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" s="100"/>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="108"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="88" t="s">
+        <v>338</v>
+      </c>
+      <c r="G38" s="100"/>
+    </row>
+    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="108"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="88" t="s">
+        <v>339</v>
+      </c>
+      <c r="G39" s="100"/>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="108"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40" s="88" t="s">
+        <v>340</v>
+      </c>
+      <c r="G40" s="100"/>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="108"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" s="88" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" s="100"/>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="109"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" s="100"/>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="107" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="107" t="s">
+        <v>353</v>
+      </c>
+      <c r="C43" s="107" t="s">
         <v>294</v>
       </c>
-      <c r="C25" s="102" t="s">
-        <v>298</v>
-      </c>
-      <c r="D25" s="102">
+      <c r="D43" s="107">
+        <v>10</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="G43" s="100"/>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="108"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G44" s="100"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="108"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="88" t="s">
+        <v>345</v>
+      </c>
+      <c r="G45" s="100"/>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="108"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" s="100"/>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="108"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="G47" s="100"/>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="108"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="88" t="s">
+        <v>348</v>
+      </c>
+      <c r="G48" s="100"/>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="88" t="s">
+        <v>349</v>
+      </c>
+      <c r="G49" s="100"/>
+    </row>
+    <row r="50" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="108"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="88" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" s="100"/>
+    </row>
+    <row r="51" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="108"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="88" t="s">
+        <v>351</v>
+      </c>
+      <c r="G51" s="100"/>
+    </row>
+    <row r="52" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="109"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="88" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" s="100"/>
+    </row>
+    <row r="53" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="B53" s="111" t="s">
+        <v>420</v>
+      </c>
+      <c r="C53" s="111" t="s">
+        <v>421</v>
+      </c>
+      <c r="D53" s="111">
         <v>18</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F25" s="88" t="s">
-        <v>326</v>
-      </c>
-      <c r="G25" s="101"/>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F26" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="G26" s="101"/>
-    </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F27" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="G27" s="101"/>
-    </row>
-    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F28" s="88" t="s">
-        <v>329</v>
-      </c>
-      <c r="G28" s="101"/>
-    </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F29" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="G29" s="101"/>
-    </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="103"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F30" s="88" t="s">
-        <v>331</v>
-      </c>
-      <c r="G30" s="101"/>
-    </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="103"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F31" s="88" t="s">
-        <v>332</v>
-      </c>
-      <c r="G31" s="101"/>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F32" s="88" t="s">
-        <v>333</v>
-      </c>
-      <c r="G32" s="101"/>
-    </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F33" s="88" t="s">
-        <v>334</v>
-      </c>
-      <c r="G33" s="101"/>
-    </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F34" s="88" t="s">
-        <v>335</v>
-      </c>
-      <c r="G34" s="101"/>
-    </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="103"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F35" s="88" t="s">
-        <v>336</v>
-      </c>
-      <c r="G35" s="101"/>
-    </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="103"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F36" s="88" t="s">
-        <v>337</v>
-      </c>
-      <c r="G36" s="101"/>
-    </row>
-    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="103"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F37" s="88" t="s">
-        <v>338</v>
-      </c>
-      <c r="G37" s="101"/>
-    </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="103"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F38" s="88" t="s">
-        <v>339</v>
-      </c>
-      <c r="G38" s="101"/>
-    </row>
-    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F39" s="88" t="s">
-        <v>340</v>
-      </c>
-      <c r="G39" s="101"/>
-    </row>
-    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="103"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F40" s="88" t="s">
-        <v>341</v>
-      </c>
-      <c r="G40" s="101"/>
-    </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="103"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F41" s="88" t="s">
-        <v>342</v>
-      </c>
-      <c r="G41" s="101"/>
-    </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="104"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F42" s="88" t="s">
-        <v>343</v>
-      </c>
-      <c r="G42" s="101"/>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="B43" s="102" t="s">
+      <c r="E53" s="83" t="s">
         <v>354</v>
       </c>
-      <c r="C43" s="102" t="s">
-        <v>295</v>
-      </c>
-      <c r="D43" s="102">
-        <v>10</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="88" t="s">
-        <v>344</v>
-      </c>
-      <c r="G43" s="101"/>
-    </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="103"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="88" t="s">
-        <v>345</v>
-      </c>
-      <c r="G44" s="101"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="103"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" s="88" t="s">
-        <v>346</v>
-      </c>
-      <c r="G45" s="101"/>
-    </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="103"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="G46" s="101"/>
-    </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="103"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="88" t="s">
-        <v>348</v>
-      </c>
-      <c r="G47" s="101"/>
-    </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="103"/>
-      <c r="B48" s="103"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F48" s="88" t="s">
-        <v>349</v>
-      </c>
-      <c r="G48" s="101"/>
-    </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="103"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F49" s="88" t="s">
-        <v>350</v>
-      </c>
-      <c r="G49" s="101"/>
-    </row>
-    <row r="50" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="103"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="88" t="s">
-        <v>351</v>
-      </c>
-      <c r="G50" s="101"/>
-    </row>
-    <row r="51" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="103"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F51" s="88" t="s">
-        <v>352</v>
-      </c>
-      <c r="G51" s="101"/>
-    </row>
-    <row r="52" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="104"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="88" t="s">
-        <v>353</v>
-      </c>
-      <c r="G52" s="101"/>
-    </row>
-    <row r="53" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="100" t="s">
+      <c r="F53" s="88" t="s">
+        <v>521</v>
+      </c>
+      <c r="G53" s="86"/>
+    </row>
+    <row r="54" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="75" t="s">
+        <v>355</v>
+      </c>
+      <c r="F54" s="88" t="s">
+        <v>522</v>
+      </c>
+      <c r="G54" s="86"/>
+    </row>
+    <row r="55" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="111"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="F55" s="88" t="s">
+        <v>523</v>
+      </c>
+      <c r="G55" s="86"/>
+    </row>
+    <row r="56" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="111"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="75" t="s">
+        <v>357</v>
+      </c>
+      <c r="F56" s="88" t="s">
+        <v>524</v>
+      </c>
+      <c r="G56" s="86"/>
+    </row>
+    <row r="57" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="111"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="F57" s="88" t="s">
+        <v>525</v>
+      </c>
+      <c r="G57" s="86"/>
+    </row>
+    <row r="58" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="111"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="F58" s="88" t="s">
+        <v>526</v>
+      </c>
+      <c r="G58" s="86"/>
+    </row>
+    <row r="59" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="111"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="F59" s="88" t="s">
+        <v>527</v>
+      </c>
+      <c r="G59" s="86"/>
+    </row>
+    <row r="60" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="111"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="F60" s="88" t="s">
+        <v>528</v>
+      </c>
+      <c r="G60" s="86"/>
+    </row>
+    <row r="61" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="111"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="F61" s="88" t="s">
+        <v>529</v>
+      </c>
+      <c r="G61" s="86"/>
+    </row>
+    <row r="62" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="111"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="F62" s="88" t="s">
+        <v>530</v>
+      </c>
+      <c r="G62" s="86"/>
+    </row>
+    <row r="63" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="111"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="75" t="s">
+        <v>364</v>
+      </c>
+      <c r="F63" s="88" t="s">
+        <v>531</v>
+      </c>
+      <c r="G63" s="86"/>
+    </row>
+    <row r="64" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="111"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="F64" s="88" t="s">
+        <v>532</v>
+      </c>
+      <c r="G64" s="86"/>
+    </row>
+    <row r="65" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="111"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="75" t="s">
+        <v>366</v>
+      </c>
+      <c r="F65" s="88" t="s">
+        <v>427</v>
+      </c>
+      <c r="G65" s="86"/>
+    </row>
+    <row r="66" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="111"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="F66" s="88" t="s">
+        <v>533</v>
+      </c>
+      <c r="G66" s="86"/>
+    </row>
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="B67" s="111" t="s">
         <v>420</v>
       </c>
-      <c r="B53" s="100" t="s">
+      <c r="C67" s="111" t="s">
         <v>421</v>
       </c>
-      <c r="C53" s="100" t="s">
-        <v>422</v>
-      </c>
-      <c r="D53" s="100">
-        <v>18</v>
-      </c>
-      <c r="E53" s="83" t="s">
-        <v>355</v>
-      </c>
-      <c r="F53" s="88" t="s">
-        <v>522</v>
-      </c>
-      <c r="G53" s="86"/>
-    </row>
-    <row r="54" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="100"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="F54" s="88" t="s">
-        <v>523</v>
-      </c>
-      <c r="G54" s="86"/>
-    </row>
-    <row r="55" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="100"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="75" t="s">
-        <v>357</v>
-      </c>
-      <c r="F55" s="88" t="s">
-        <v>524</v>
-      </c>
-      <c r="G55" s="86"/>
-    </row>
-    <row r="56" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="100"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="75" t="s">
-        <v>358</v>
-      </c>
-      <c r="F56" s="88" t="s">
-        <v>525</v>
-      </c>
-      <c r="G56" s="86"/>
-    </row>
-    <row r="57" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="100"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="75" t="s">
-        <v>359</v>
-      </c>
-      <c r="F57" s="88" t="s">
-        <v>526</v>
-      </c>
-      <c r="G57" s="86"/>
-    </row>
-    <row r="58" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="100"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="F58" s="88" t="s">
-        <v>527</v>
-      </c>
-      <c r="G58" s="86"/>
-    </row>
-    <row r="59" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="100"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="100"/>
-      <c r="E59" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="F59" s="88" t="s">
-        <v>528</v>
-      </c>
-      <c r="G59" s="86"/>
-    </row>
-    <row r="60" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="100"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="F60" s="88" t="s">
-        <v>529</v>
-      </c>
-      <c r="G60" s="86"/>
-    </row>
-    <row r="61" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="100"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="100"/>
-      <c r="E61" s="75" t="s">
-        <v>363</v>
-      </c>
-      <c r="F61" s="88" t="s">
-        <v>530</v>
-      </c>
-      <c r="G61" s="86"/>
-    </row>
-    <row r="62" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="100"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="75" t="s">
-        <v>364</v>
-      </c>
-      <c r="F62" s="88" t="s">
-        <v>531</v>
-      </c>
-      <c r="G62" s="86"/>
-    </row>
-    <row r="63" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="100"/>
-      <c r="B63" s="100"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="75" t="s">
-        <v>365</v>
-      </c>
-      <c r="F63" s="88" t="s">
-        <v>532</v>
-      </c>
-      <c r="G63" s="86"/>
-    </row>
-    <row r="64" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="100"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="75" t="s">
-        <v>366</v>
-      </c>
-      <c r="F64" s="88" t="s">
-        <v>533</v>
-      </c>
-      <c r="G64" s="86"/>
-    </row>
-    <row r="65" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="100"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="75" t="s">
-        <v>367</v>
-      </c>
-      <c r="F65" s="88" t="s">
-        <v>428</v>
-      </c>
-      <c r="G65" s="86"/>
-    </row>
-    <row r="66" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="100"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="100"/>
-      <c r="E66" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="F66" s="88" t="s">
+      <c r="D67" s="111">
+        <v>16</v>
+      </c>
+      <c r="E67" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="F67" s="88" t="s">
         <v>534</v>
       </c>
-      <c r="G66" s="86"/>
-    </row>
-    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="100" t="s">
-        <v>420</v>
-      </c>
-      <c r="B67" s="100" t="s">
-        <v>421</v>
-      </c>
-      <c r="C67" s="100" t="s">
-        <v>422</v>
-      </c>
-      <c r="D67" s="100">
-        <v>16</v>
-      </c>
-      <c r="E67" s="75" t="s">
+      <c r="G67" s="99"/>
+    </row>
+    <row r="68" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A68" s="111"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="111"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="F67" s="88" t="s">
+      <c r="F68" s="88" t="s">
         <v>535</v>
       </c>
-      <c r="G67" s="99"/>
-    </row>
-    <row r="68" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A68" s="100"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="75" t="s">
+      <c r="G68" s="99"/>
+    </row>
+    <row r="69" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A69" s="111"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="F68" s="88" t="s">
+      <c r="F69" s="88" t="s">
         <v>536</v>
       </c>
-      <c r="G68" s="99"/>
-    </row>
-    <row r="69" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A69" s="100"/>
-      <c r="B69" s="100"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="100"/>
-      <c r="E69" s="75" t="s">
+      <c r="G69" s="99"/>
+    </row>
+    <row r="70" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="111"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="75" t="s">
         <v>433</v>
       </c>
-      <c r="F69" s="88" t="s">
+      <c r="F70" s="88" t="s">
         <v>537</v>
       </c>
-      <c r="G69" s="99"/>
-    </row>
-    <row r="70" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="100"/>
-      <c r="B70" s="100"/>
-      <c r="C70" s="100"/>
-      <c r="D70" s="100"/>
-      <c r="E70" s="75" t="s">
+      <c r="G70" s="99"/>
+    </row>
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="111"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="F70" s="88" t="s">
+      <c r="F71" s="88" t="s">
         <v>538</v>
       </c>
-      <c r="G70" s="99"/>
-    </row>
-    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="100"/>
-      <c r="B71" s="100"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="100"/>
-      <c r="E71" s="75" t="s">
+      <c r="G71" s="99"/>
+    </row>
+    <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="111"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="75" t="s">
         <v>435</v>
       </c>
-      <c r="F71" s="88" t="s">
+      <c r="F72" s="88" t="s">
         <v>539</v>
       </c>
-      <c r="G71" s="99"/>
-    </row>
-    <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A72" s="100"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="100"/>
-      <c r="D72" s="100"/>
-      <c r="E72" s="75" t="s">
+      <c r="G72" s="99"/>
+    </row>
+    <row r="73" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="111"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="111"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="75" t="s">
         <v>436</v>
       </c>
-      <c r="F72" s="88" t="s">
+      <c r="F73" s="88" t="s">
         <v>540</v>
       </c>
-      <c r="G72" s="99"/>
-    </row>
-    <row r="73" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A73" s="100"/>
-      <c r="B73" s="100"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="75" t="s">
+      <c r="G73" s="99"/>
+    </row>
+    <row r="74" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="111"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="75" t="s">
         <v>437</v>
       </c>
-      <c r="F73" s="88" t="s">
+      <c r="F74" s="88" t="s">
         <v>541</v>
       </c>
-      <c r="G73" s="99"/>
-    </row>
-    <row r="74" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A74" s="100"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="75" t="s">
+      <c r="G74" s="99"/>
+    </row>
+    <row r="75" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="111"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="75" t="s">
         <v>438</v>
       </c>
-      <c r="F74" s="88" t="s">
+      <c r="F75" s="88" t="s">
         <v>542</v>
       </c>
-      <c r="G74" s="99"/>
-    </row>
-    <row r="75" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A75" s="100"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="75" t="s">
+      <c r="G75" s="99"/>
+    </row>
+    <row r="76" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="111"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="75" t="s">
         <v>439</v>
       </c>
-      <c r="F75" s="88" t="s">
+      <c r="F76" s="88" t="s">
         <v>543</v>
       </c>
-      <c r="G75" s="99"/>
-    </row>
-    <row r="76" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A76" s="100"/>
-      <c r="B76" s="100"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="75" t="s">
+      <c r="G76" s="99"/>
+    </row>
+    <row r="77" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A77" s="111"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="75" t="s">
         <v>440</v>
       </c>
-      <c r="F76" s="88" t="s">
+      <c r="F77" s="88" t="s">
         <v>544</v>
       </c>
-      <c r="G76" s="99"/>
-    </row>
-    <row r="77" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A77" s="100"/>
-      <c r="B77" s="100"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="75" t="s">
+      <c r="G77" s="99"/>
+    </row>
+    <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A78" s="111"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="75" t="s">
         <v>441</v>
       </c>
-      <c r="F77" s="88" t="s">
+      <c r="F78" s="88" t="s">
         <v>545</v>
       </c>
-      <c r="G77" s="99"/>
-    </row>
-    <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A78" s="100"/>
-      <c r="B78" s="100"/>
-      <c r="C78" s="100"/>
-      <c r="D78" s="100"/>
-      <c r="E78" s="75" t="s">
+      <c r="G78" s="99"/>
+    </row>
+    <row r="79" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A79" s="111"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="75" t="s">
         <v>442</v>
       </c>
-      <c r="F78" s="88" t="s">
+      <c r="F79" s="88" t="s">
         <v>546</v>
       </c>
-      <c r="G78" s="99"/>
-    </row>
-    <row r="79" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A79" s="100"/>
-      <c r="B79" s="100"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="100"/>
-      <c r="E79" s="75" t="s">
+      <c r="G79" s="99"/>
+    </row>
+    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="111"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="75" t="s">
         <v>443</v>
       </c>
-      <c r="F79" s="88" t="s">
+      <c r="F80" s="88" t="s">
         <v>547</v>
       </c>
-      <c r="G79" s="99"/>
-    </row>
-    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="100"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="100"/>
-      <c r="E80" s="75" t="s">
-        <v>444</v>
-      </c>
-      <c r="F80" s="88" t="s">
+      <c r="G80" s="99"/>
+    </row>
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="111"/>
+      <c r="B81" s="111"/>
+      <c r="C81" s="111"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="75" t="s">
+        <v>510</v>
+      </c>
+      <c r="F81" s="88" t="s">
         <v>548</v>
       </c>
-      <c r="G80" s="99"/>
-    </row>
-    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="100"/>
-      <c r="B81" s="100"/>
-      <c r="C81" s="100"/>
-      <c r="D81" s="100"/>
-      <c r="E81" s="75" t="s">
+      <c r="G81" s="99"/>
+    </row>
+    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="111"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="75" t="s">
         <v>511</v>
       </c>
-      <c r="F81" s="88" t="s">
+      <c r="F82" s="88" t="s">
         <v>549</v>
-      </c>
-      <c r="G81" s="99"/>
-    </row>
-    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A82" s="100"/>
-      <c r="B82" s="100"/>
-      <c r="C82" s="100"/>
-      <c r="D82" s="100"/>
-      <c r="E82" s="75" t="s">
-        <v>512</v>
-      </c>
-      <c r="F82" s="88" t="s">
-        <v>550</v>
       </c>
       <c r="G82" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="G12:G20"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G11"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="A67:A82"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="C67:C82"/>
+    <mergeCell ref="D67:D82"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="A53:A66"/>
+    <mergeCell ref="B53:B66"/>
+    <mergeCell ref="C53:C66"/>
+    <mergeCell ref="D53:D66"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="A25:A42"/>
@@ -4964,21 +4965,17 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A67:A82"/>
-    <mergeCell ref="B67:B82"/>
-    <mergeCell ref="C67:C82"/>
-    <mergeCell ref="D67:D82"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="A53:A66"/>
-    <mergeCell ref="B53:B66"/>
-    <mergeCell ref="C53:C66"/>
-    <mergeCell ref="D53:D66"/>
+    <mergeCell ref="G12:G20"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G11"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D12:D20"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5013,75 +5010,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="C1" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="118" t="s">
-        <v>411</v>
-      </c>
-      <c r="M1" s="118" t="s">
+      <c r="L1" s="127" t="s">
+        <v>410</v>
+      </c>
+      <c r="M1" s="127" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="71" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="G2" s="71" t="s">
         <v>445</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="H2" s="71" t="s">
         <v>446</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="I2" s="71" t="s">
         <v>447</v>
       </c>
-      <c r="I2" s="71" t="s">
-        <v>448</v>
-      </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B3" s="84" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" s="84" t="s">
         <v>458</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>460</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>459</v>
       </c>
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
@@ -5095,33 +5092,33 @@
         <v>5</v>
       </c>
       <c r="J3" s="84" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K3" s="84" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L3" s="85" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M3" s="72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="83" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="97">
@@ -5134,33 +5131,33 @@
         <v>5</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K4" s="84" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L4" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M4" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C5" s="84" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="84" t="s">
         <v>462</v>
       </c>
-      <c r="D5" s="84" t="s">
-        <v>463</v>
-      </c>
       <c r="E5" s="78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F5" s="75"/>
       <c r="G5" s="97">
@@ -5173,30 +5170,30 @@
         <v>5</v>
       </c>
       <c r="J5" s="84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K5" s="84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L5" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M5" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B6" s="76" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="84" t="s">
         <v>466</v>
       </c>
-      <c r="C6" s="84" t="s">
-        <v>467</v>
-      </c>
       <c r="D6" s="84" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E6" s="78">
         <v>139454</v>
@@ -5210,30 +5207,30 @@
         <v>5</v>
       </c>
       <c r="J6" s="84" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K6" s="84" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L6" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B7" s="76" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="84" t="s">
         <v>470</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>471</v>
-      </c>
       <c r="D7" s="84" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E7" s="78"/>
       <c r="F7" s="80">
@@ -5247,33 +5244,33 @@
         <v>5</v>
       </c>
       <c r="J7" s="84" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K7" s="84" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L7" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="M7" s="74" t="s">
         <v>375</v>
-      </c>
-      <c r="M7" s="74" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F8" s="80">
         <v>45588</v>
@@ -5286,33 +5283,33 @@
         <v>5</v>
       </c>
       <c r="J8" s="84" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L8" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="M8" s="74" t="s">
         <v>375</v>
-      </c>
-      <c r="M8" s="74" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D9" s="84" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F9" s="80">
         <v>45588</v>
@@ -5325,30 +5322,30 @@
         <v>5</v>
       </c>
       <c r="J9" s="84" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K9" s="84" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L9" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="M9" s="74" t="s">
         <v>375</v>
-      </c>
-      <c r="M9" s="74" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="83" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E10" s="83"/>
       <c r="F10" s="80">
@@ -5358,39 +5355,39 @@
         <v>45595</v>
       </c>
       <c r="H10" s="83" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I10" s="83">
         <v>5</v>
       </c>
       <c r="J10" s="84" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K10" s="84" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L10" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M10" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="83" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F11" s="80">
         <v>45588</v>
@@ -5399,39 +5396,39 @@
         <v>45595</v>
       </c>
       <c r="H11" s="83" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I11" s="83">
         <v>5</v>
       </c>
       <c r="J11" s="84" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K11" s="84" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L11" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M11" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="83" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F12" s="80">
         <v>45588</v>
@@ -5440,36 +5437,36 @@
         <v>45595</v>
       </c>
       <c r="H12" s="83" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I12" s="83">
         <v>5</v>
       </c>
       <c r="J12" s="84" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K12" s="84" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L12" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M12" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="83" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B13" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="C13" s="84" t="s">
         <v>495</v>
       </c>
-      <c r="C13" s="84" t="s">
-        <v>496</v>
-      </c>
       <c r="D13" s="84" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E13" s="78"/>
       <c r="F13" s="80">
@@ -5479,39 +5476,39 @@
         <v>45595</v>
       </c>
       <c r="H13" s="78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I13" s="83">
         <v>5</v>
       </c>
       <c r="J13" s="84" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K13" s="84" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L13" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M13" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="83" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F14" s="80">
         <v>45588</v>
@@ -5520,39 +5517,39 @@
         <v>45595</v>
       </c>
       <c r="H14" s="78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I14" s="78">
         <v>5</v>
       </c>
       <c r="J14" s="84" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K14" s="84" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L14" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M14" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="83" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F15" s="80">
         <v>45588</v>
@@ -5561,36 +5558,36 @@
         <v>45595</v>
       </c>
       <c r="H15" s="78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I15" s="78">
         <v>5</v>
       </c>
       <c r="J15" s="84" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K15" s="84" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L15" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M15" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="83" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E16" s="78">
         <v>139454</v>
@@ -5604,67 +5601,67 @@
       <c r="H16" s="78"/>
       <c r="I16" s="78"/>
       <c r="J16" s="84" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K16" s="84" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L16" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="M16" s="74" t="s">
         <v>375</v>
-      </c>
-      <c r="M16" s="74" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J17" s="84" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K17" s="84" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L17" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M17" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="83" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E18" s="78">
         <v>139454</v>
@@ -5676,22 +5673,22 @@
         <v>45595</v>
       </c>
       <c r="H18" s="78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I18" s="78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J18" s="84" t="s">
+        <v>516</v>
+      </c>
+      <c r="K18" s="84" t="s">
         <v>517</v>
       </c>
-      <c r="K18" s="84" t="s">
-        <v>518</v>
-      </c>
       <c r="L18" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="M18" s="74" t="s">
         <v>375</v>
-      </c>
-      <c r="M18" s="74" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -5702,148 +5699,148 @@
     </row>
     <row r="21" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="93" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B21" s="93" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="93" t="s">
+        <v>444</v>
+      </c>
+      <c r="D21" s="93" t="s">
         <v>445</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="E21" s="94" t="s">
         <v>446</v>
       </c>
-      <c r="E21" s="94" t="s">
+      <c r="F21" s="94" t="s">
         <v>447</v>
       </c>
-      <c r="F21" s="94" t="s">
-        <v>448</v>
-      </c>
       <c r="G21" s="70"/>
-      <c r="H21" s="120" t="s">
-        <v>453</v>
-      </c>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
+      <c r="H21" s="135" t="s">
+        <v>452</v>
+      </c>
+      <c r="I21" s="136"/>
+      <c r="J21" s="137"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="92">
         <v>1</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C22" s="95" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D22" s="95" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E22" s="95" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F22" s="95" t="s">
-        <v>282</v>
-      </c>
-      <c r="H22" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
+        <v>281</v>
+      </c>
+      <c r="H22" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="89">
         <v>2</v>
       </c>
       <c r="B23" s="96" t="s">
+        <v>449</v>
+      </c>
+      <c r="C23" s="96" t="s">
         <v>450</v>
       </c>
-      <c r="C23" s="96" t="s">
-        <v>451</v>
-      </c>
       <c r="D23" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E23" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F23" s="96" t="s">
-        <v>282</v>
-      </c>
-      <c r="H23" s="120" t="s">
-        <v>455</v>
-      </c>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
+        <v>281</v>
+      </c>
+      <c r="H23" s="135" t="s">
+        <v>454</v>
+      </c>
+      <c r="I23" s="138"/>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="89">
         <v>3</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C24" s="96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D24" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E24" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F24" s="96" t="s">
-        <v>282</v>
-      </c>
-      <c r="H24" s="112" t="s">
-        <v>456</v>
-      </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="114"/>
+        <v>281</v>
+      </c>
+      <c r="H24" s="129" t="s">
+        <v>455</v>
+      </c>
+      <c r="I24" s="130"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="89">
         <v>4</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C25" s="96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E25" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F25" s="96" t="s">
-        <v>282</v>
-      </c>
-      <c r="H25" s="115" t="s">
-        <v>457</v>
-      </c>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
+        <v>281</v>
+      </c>
+      <c r="H25" s="132" t="s">
+        <v>456</v>
+      </c>
+      <c r="I25" s="133"/>
+      <c r="J25" s="134"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="89">
         <v>5</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C26" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D26" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E26" s="96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F26" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J26" s="90"/>
       <c r="L26" s="70"/>
@@ -5854,19 +5851,19 @@
         <v>6</v>
       </c>
       <c r="B27" s="96" t="s">
+        <v>449</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="96" t="s">
         <v>450</v>
       </c>
-      <c r="C27" s="96" t="s">
-        <v>282</v>
-      </c>
-      <c r="D27" s="96" t="s">
-        <v>282</v>
-      </c>
-      <c r="E27" s="96" t="s">
-        <v>451</v>
-      </c>
       <c r="F27" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
@@ -5878,19 +5875,19 @@
         <v>7</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C28" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D28" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E28" s="96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F28" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
@@ -5902,19 +5899,19 @@
         <v>8</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D29" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E29" s="96" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F29" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
@@ -5926,19 +5923,19 @@
         <v>9</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C30" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D30" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E30" s="96" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F30" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
@@ -5950,19 +5947,19 @@
         <v>10</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C31" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D31" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E31" s="96" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F31" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
@@ -5974,19 +5971,19 @@
         <v>11</v>
       </c>
       <c r="B32" s="96" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32" s="96" t="s">
         <v>451</v>
       </c>
-      <c r="C32" s="96" t="s">
-        <v>282</v>
-      </c>
-      <c r="D32" s="96" t="s">
-        <v>282</v>
-      </c>
-      <c r="E32" s="96" t="s">
-        <v>452</v>
-      </c>
       <c r="F32" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
@@ -5998,19 +5995,19 @@
         <v>12</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C33" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D33" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E33" s="96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F33" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J33" s="90"/>
       <c r="L33" s="70"/>
@@ -6021,19 +6018,19 @@
         <v>13</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C34" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D34" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E34" s="96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F34" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J34" s="90"/>
     </row>
@@ -6042,19 +6039,19 @@
         <v>14</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C35" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D35" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E35" s="96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F35" s="96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J35" s="90"/>
     </row>
@@ -6063,11 +6060,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K1:K2"/>
@@ -6077,6 +6069,11 @@
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6113,421 +6110,421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="C1" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="125" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="135" t="s">
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="135" t="s">
+      <c r="P1" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="125" t="s">
+      <c r="Q1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="134" t="s">
+      <c r="R1" s="115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="G2" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="L2" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="M2" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="M2" s="35" t="s">
-        <v>165</v>
-      </c>
       <c r="N2" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="134"/>
+        <v>95</v>
+      </c>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="115"/>
     </row>
     <row r="3" spans="1:18" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>171</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>172</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="32">
         <v>12345678</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>177</v>
-      </c>
       <c r="F4" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="38">
         <v>36558</v>
       </c>
       <c r="H4" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="J4" s="31"/>
       <c r="K4" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="M4" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="N4" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="O4" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="O4" s="39" t="s">
-        <v>184</v>
-      </c>
       <c r="P4" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="E5" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>187</v>
-      </c>
       <c r="F5" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G5" s="38">
         <v>36558</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K5" s="26">
         <v>1</v>
       </c>
       <c r="L5" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>191</v>
       </c>
       <c r="N5" s="26" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="E6" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>195</v>
-      </c>
       <c r="F6" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="J6" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="K6" s="26">
         <v>888888</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="O6" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="N6" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>200</v>
-      </c>
       <c r="P6" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="E7" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="26" t="s">
+      <c r="H7" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" s="26" t="s">
+      <c r="K7" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>206</v>
       </c>
       <c r="L7" s="32">
         <v>12345678</v>
       </c>
       <c r="M7" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="O7" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="N7" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>208</v>
-      </c>
       <c r="P7" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="26" t="s">
+      <c r="I8" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>212</v>
       </c>
       <c r="K8" s="26">
         <v>888888</v>
       </c>
       <c r="L8" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="M8" s="26" t="s">
         <v>213</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>214</v>
       </c>
       <c r="N8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="O8" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>216</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>217</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G9" s="38">
         <v>36558</v>
@@ -6536,326 +6533,326 @@
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L9" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="M9" s="26" t="s">
         <v>219</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>220</v>
       </c>
       <c r="N9" s="26" t="s">
         <v>14</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q9" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="D10" s="26" t="s">
+      <c r="E10" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>224</v>
-      </c>
       <c r="F10" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G10" s="38">
         <v>36558</v>
       </c>
       <c r="H10" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="J10" s="26" t="s">
+      <c r="K10" s="26" t="s">
         <v>226</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>227</v>
       </c>
       <c r="L10" s="32">
         <v>1234567</v>
       </c>
       <c r="M10" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="O10" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="N10" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>229</v>
-      </c>
       <c r="P10" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>231</v>
-      </c>
       <c r="F11" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" s="42">
         <v>36558</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K11" s="27">
         <v>888888</v>
       </c>
       <c r="L11" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M11" s="27" t="s">
         <v>233</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>234</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>237</v>
-      </c>
       <c r="F12" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="42">
         <v>36558</v>
       </c>
       <c r="H12" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="J12" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" s="27" t="s">
         <v>239</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>240</v>
       </c>
       <c r="L12" s="33">
         <v>12345678</v>
       </c>
       <c r="M12" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="N12" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="O12" s="41" t="s">
-        <v>242</v>
-      </c>
       <c r="P12" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q12" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>243</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>244</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H13" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>179</v>
-      </c>
       <c r="J13" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K13" s="27">
         <v>0</v>
       </c>
       <c r="L13" s="43"/>
       <c r="M13" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P13" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>247</v>
-      </c>
       <c r="E14" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G14" s="42">
         <v>36558</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
       <c r="L14" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M14" s="44"/>
       <c r="N14" s="44" t="s">
         <v>14</v>
       </c>
       <c r="O14" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P14" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>252</v>
-      </c>
       <c r="E15" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
       <c r="I15" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K15" s="27">
         <v>888888</v>
@@ -6864,196 +6861,196 @@
         <v>12345678</v>
       </c>
       <c r="M15" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="O15" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="N15" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="O15" s="41" t="s">
-        <v>254</v>
-      </c>
       <c r="P15" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q15" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>256</v>
-      </c>
       <c r="E16" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G16" s="42">
         <v>36558</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J16" s="27">
         <v>1234444</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L16" s="33">
         <v>12345678</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N16" s="27" t="s">
         <v>14</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P16" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="I17" s="27" t="s">
+      <c r="J17" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="J17" s="27" t="s">
-        <v>262</v>
-      </c>
       <c r="K17" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L17" s="43"/>
       <c r="M17" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="O17" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="N17" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="O17" s="41" t="s">
+      <c r="P17" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="P17" s="41" t="s">
-        <v>265</v>
-      </c>
       <c r="Q17" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>266</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>267</v>
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="27" t="s">
-        <v>170</v>
-      </c>
       <c r="H18" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K18" s="27">
         <v>888888</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M18" s="44"/>
       <c r="N18" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q18" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="27"/>
@@ -7066,48 +7063,48 @@
       <c r="M19" s="44"/>
       <c r="N19" s="44"/>
       <c r="O19" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="E20" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>273</v>
-      </c>
       <c r="F20" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G20" s="42">
         <v>37652</v>
       </c>
       <c r="H20" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="I20" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="J20" s="27" t="s">
         <v>275</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>276</v>
       </c>
       <c r="K20" s="27">
         <v>550000</v>
@@ -7116,22 +7113,22 @@
         <v>123456789</v>
       </c>
       <c r="M20" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="N20" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="N20" s="44" t="s">
+      <c r="O20" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="O20" s="27" t="s">
-        <v>279</v>
-      </c>
       <c r="P20" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -7144,115 +7141,115 @@
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="E23" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="F23" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="G23" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="H23" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="51" t="s">
+      <c r="I23" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="I23" s="51" t="s">
-        <v>165</v>
-      </c>
       <c r="J23" s="53"/>
-      <c r="K23" s="131" t="s">
-        <v>280</v>
-      </c>
-      <c r="L23" s="132"/>
-      <c r="M23" s="133"/>
+      <c r="K23" s="112" t="s">
+        <v>279</v>
+      </c>
+      <c r="L23" s="113"/>
+      <c r="M23" s="114"/>
       <c r="N23" s="57"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F24" s="59" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H24" s="59" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J24" s="53"/>
-      <c r="K24" s="131" t="s">
-        <v>284</v>
-      </c>
-      <c r="L24" s="132"/>
-      <c r="M24" s="133"/>
+      <c r="K24" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="L24" s="113"/>
+      <c r="M24" s="114"/>
       <c r="N24" s="57"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E25" s="59" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I25" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J25" s="53"/>
-      <c r="K25" s="131" t="s">
-        <v>286</v>
-      </c>
-      <c r="L25" s="132"/>
-      <c r="M25" s="133"/>
+      <c r="K25" s="112" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25" s="113"/>
+      <c r="M25" s="114"/>
       <c r="N25" s="57"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B26" s="59" t="s">
         <v>14</v>
@@ -7261,26 +7258,26 @@
         <v>14</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F26" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" s="59" t="s">
         <v>281</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="H26" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="I26" s="59" t="s">
-        <v>282</v>
       </c>
       <c r="J26" s="53"/>
       <c r="K26" s="54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="56"/>
@@ -7288,35 +7285,35 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G27" s="59" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I27" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J27" s="53"/>
       <c r="K27" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L27" s="62"/>
       <c r="M27" s="61"/>
@@ -7324,35 +7321,35 @@
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="G28" s="59" t="s">
         <v>282</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>283</v>
       </c>
       <c r="H28" s="59" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J28" s="53"/>
       <c r="K28" s="54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
@@ -7360,35 +7357,35 @@
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="59" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" s="59" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G29" s="59" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I29" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J29" s="53"/>
       <c r="K29" s="54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="56"/>
@@ -7396,7 +7393,7 @@
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" s="59" t="s">
         <v>14</v>
@@ -7405,26 +7402,26 @@
         <v>14</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F30" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G30" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H30" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I30" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J30" s="53"/>
       <c r="K30" s="54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="56"/>
@@ -7432,16 +7429,16 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" s="59" t="s">
         <v>14</v>
@@ -7450,25 +7447,25 @@
         <v>14</v>
       </c>
       <c r="G31" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H31" s="59" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J31" s="53"/>
-      <c r="K31" s="131" t="s">
-        <v>292</v>
-      </c>
-      <c r="L31" s="132"/>
-      <c r="M31" s="133"/>
+      <c r="K31" s="112" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" s="113"/>
+      <c r="M31" s="114"/>
       <c r="N31" s="57"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" s="59" t="s">
         <v>14</v>
@@ -7477,10 +7474,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F32" s="59" t="s">
         <v>14</v>
@@ -7489,41 +7486,41 @@
         <v>14</v>
       </c>
       <c r="H32" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I32" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J32" s="53"/>
       <c r="N32" s="53"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F33" s="59" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H33" s="59" t="s">
         <v>14</v>
       </c>
       <c r="I33" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J33" s="53"/>
       <c r="K33" s="53"/>
@@ -7533,16 +7530,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E34" s="59" t="s">
         <v>14</v>
@@ -7551,13 +7548,13 @@
         <v>14</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H34" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I34" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J34" s="53"/>
       <c r="K34" s="53"/>
@@ -7567,7 +7564,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B35" s="59" t="s">
         <v>14</v>
@@ -7576,22 +7573,22 @@
         <v>14</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F35" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G35" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H35" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I35" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J35" s="53"/>
       <c r="K35" s="53"/>
@@ -7601,22 +7598,22 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E36" s="59" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G36" s="59" t="s">
         <v>14</v>
@@ -7625,7 +7622,7 @@
         <v>14</v>
       </c>
       <c r="I36" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J36" s="53"/>
       <c r="K36" s="53"/>
@@ -7635,7 +7632,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B37" s="59" t="s">
         <v>14</v>
@@ -7644,22 +7641,22 @@
         <v>14</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E37" s="59" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G37" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H37" s="59" t="s">
         <v>14</v>
       </c>
       <c r="I37" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
@@ -7669,31 +7666,31 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D38" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="E38" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="F38" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="G38" s="59" t="s">
-        <v>283</v>
-      </c>
       <c r="H38" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I38" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
@@ -7703,19 +7700,19 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F39" s="59" t="s">
         <v>14</v>
@@ -7724,10 +7721,10 @@
         <v>14</v>
       </c>
       <c r="H39" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I39" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
@@ -7737,6 +7734,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="K31:M31"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="P1:P2"/>
@@ -7745,11 +7747,6 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="K24:M24"/>
     <mergeCell ref="K25:M25"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -7782,127 +7779,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="C1" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="D1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="124"/>
+      <c r="G1" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="136" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="137"/>
-      <c r="G1" s="125" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="134"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="1:10" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>119</v>
       </c>
       <c r="F3" s="29">
         <v>1000</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="D4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>125</v>
-      </c>
       <c r="H4" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>127</v>
-      </c>
       <c r="D5" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="28">
         <v>95690</v>
@@ -7911,30 +7908,30 @@
         <v>1000</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="132.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>130</v>
-      </c>
       <c r="D6" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="28">
         <v>95690</v>
@@ -7943,30 +7940,30 @@
         <v>300</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="168" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>133</v>
-      </c>
       <c r="D7" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="28">
         <v>9590</v>
@@ -7975,126 +7972,126 @@
         <v>1000</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="141.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="D8" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="F8" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="G8" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>139</v>
-      </c>
       <c r="H8" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="143.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>141</v>
-      </c>
       <c r="D9" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="28">
         <v>95690</v>
       </c>
       <c r="F9" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>143</v>
-      </c>
       <c r="H9" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="128.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="D10" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="28" t="s">
+      <c r="F10" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="G10" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>148</v>
-      </c>
       <c r="H10" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="116.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="D11" s="33" t="s">
         <v>150</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>151</v>
       </c>
       <c r="E11" s="28">
         <v>50705</v>
@@ -8103,44 +8100,44 @@
         <v>1000</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>154</v>
-      </c>
       <c r="D12" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="26"/>
       <c r="G12" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -8163,8 +8160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A96FD1D-8811-461F-88BC-5CD141AE487A}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8183,41 +8180,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134" t="s">
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="134" t="s">
+      <c r="J1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="134" t="s">
+      <c r="K1" s="115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
@@ -8227,23 +8224,23 @@
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7">
         <v>34840</v>
@@ -8259,10 +8256,10 @@
         <v>26</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8270,13 +8267,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>12</v>
@@ -8294,10 +8291,10 @@
         <v>27</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -8305,13 +8302,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="E5" s="7">
         <v>34840</v>
@@ -8323,16 +8320,16 @@
         <v>14</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
@@ -8340,13 +8337,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
@@ -8357,13 +8354,13 @@
         <v>28</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -8371,13 +8368,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -8391,10 +8388,10 @@
         <v>29</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -8402,13 +8399,13 @@
         <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7">
         <v>34840</v>
@@ -8424,10 +8421,10 @@
         <v>30</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
@@ -8435,13 +8432,13 @@
         <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
@@ -8455,10 +8452,10 @@
         <v>31</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -8466,13 +8463,13 @@
         <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>15</v>
@@ -8488,10 +8485,10 @@
         <v>32</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -8499,13 +8496,13 @@
         <v>24</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
@@ -8519,10 +8516,10 @@
         <v>33</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8646,8 +8643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1587B-C655-4764-8C94-B276F1EFE666}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8666,41 +8663,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134" t="s">
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="134" t="s">
+      <c r="J1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="134" t="s">
+      <c r="K1" s="115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
@@ -8710,23 +8707,23 @@
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7">
         <v>34840</v>
@@ -8742,24 +8739,24 @@
         <v>26</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>12</v>
@@ -8777,24 +8774,24 @@
         <v>27</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="E5" s="7">
         <v>34840</v>
@@ -8806,30 +8803,30 @@
         <v>14</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
@@ -8840,27 +8837,27 @@
         <v>28</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -8874,24 +8871,24 @@
         <v>29</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7">
         <v>34840</v>
@@ -8907,24 +8904,24 @@
         <v>30</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
@@ -8938,24 +8935,24 @@
         <v>31</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>15</v>
@@ -8971,24 +8968,24 @@
         <v>32</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
@@ -9002,10 +8999,10 @@
         <v>33</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9150,141 +9147,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134" t="s">
+      <c r="F1" s="115"/>
+      <c r="G1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="134" t="s">
+      <c r="H1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="134" t="s">
+      <c r="J1" s="115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="G4" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="G5" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -9327,12 +9324,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -9363,69 +9360,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="138" t="s">
+      <c r="E1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="134" t="s">
+      <c r="F1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="134" t="s">
+      <c r="H1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:9" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>92</v>
-      </c>
       <c r="C3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>109</v>
-      </c>
       <c r="G3" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -9482,71 +9479,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="C1" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="118" t="s">
-        <v>411</v>
-      </c>
-      <c r="L1" s="118" t="s">
+      <c r="K1" s="127" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" s="127" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="G2" s="71" t="s">
         <v>371</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>372</v>
       </c>
       <c r="H2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="1:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E3" s="83"/>
       <c r="F3" s="83">
@@ -9556,33 +9553,33 @@
         <v>100000</v>
       </c>
       <c r="H3" s="83" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I3" s="84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J3" s="84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K3" s="85" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L3" s="72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>11</v>
@@ -9594,36 +9591,36 @@
         <v>100000</v>
       </c>
       <c r="H4" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I4" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="K4" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="J4" s="77" t="s">
-        <v>388</v>
-      </c>
-      <c r="K4" s="73" t="s">
-        <v>389</v>
-      </c>
       <c r="L4" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F5" s="75">
         <v>70234345103</v>
@@ -9632,33 +9629,33 @@
         <v>100000</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I5" s="77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K5" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L5" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.2">
       <c r="A6" s="75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E6" s="75">
         <v>69234785103</v>
@@ -9668,109 +9665,109 @@
         <v>100000</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I6" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="J6" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="J6" s="76" t="s">
-        <v>380</v>
-      </c>
       <c r="K6" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E7" s="75">
         <v>69234785103</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G7" s="75">
         <v>100000</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I7" s="77" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K7" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L7" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E8" s="75">
         <v>69234785103</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G8" s="75">
         <v>100000</v>
       </c>
       <c r="H8" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I8" s="77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K8" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L8" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="75" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E9" s="75">
         <v>69234785103</v>
@@ -9780,33 +9777,33 @@
       </c>
       <c r="G9" s="75"/>
       <c r="H9" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I9" s="76" t="s">
+        <v>383</v>
+      </c>
+      <c r="J9" s="76" t="s">
         <v>384</v>
       </c>
-      <c r="J9" s="76" t="s">
-        <v>385</v>
-      </c>
       <c r="K9" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="L9" s="74" t="s">
         <v>375</v>
-      </c>
-      <c r="L9" s="74" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E10" s="75">
         <v>69234785103</v>
@@ -9818,33 +9815,33 @@
         <v>11</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I10" s="81" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J10" s="81" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K10" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L10" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E11" s="75">
         <v>69234785103</v>
@@ -9853,36 +9850,36 @@
         <v>70234345103</v>
       </c>
       <c r="G11" s="82" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I11" s="76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K11" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="L11" s="74" t="s">
         <v>375</v>
-      </c>
-      <c r="L11" s="74" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B12" s="76" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" s="76" t="s">
         <v>407</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="D12" s="76" t="s">
         <v>408</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>409</v>
       </c>
       <c r="E12" s="75">
         <v>69234785103</v>
@@ -9896,69 +9893,69 @@
       </c>
       <c r="H12" s="75"/>
       <c r="I12" s="76" t="s">
+        <v>383</v>
+      </c>
+      <c r="J12" s="76" t="s">
         <v>384</v>
       </c>
-      <c r="J12" s="76" t="s">
-        <v>385</v>
-      </c>
       <c r="K12" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="L12" s="74" t="s">
         <v>375</v>
-      </c>
-      <c r="L12" s="74" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="75" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C13" s="76" t="s">
+        <v>415</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>413</v>
+      </c>
+      <c r="E13" s="75" t="s">
         <v>416</v>
       </c>
-      <c r="D13" s="76" t="s">
-        <v>414</v>
-      </c>
-      <c r="E13" s="75" t="s">
+      <c r="F13" s="75" t="s">
         <v>417</v>
-      </c>
-      <c r="F13" s="75" t="s">
-        <v>418</v>
       </c>
       <c r="G13" s="75">
         <f>100000</f>
         <v>100000</v>
       </c>
       <c r="H13" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I13" s="76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J13" s="76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K13" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L13" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="75" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E14" s="75">
         <v>69234785103</v>
@@ -9971,33 +9968,33 @@
         <v>100000</v>
       </c>
       <c r="H14" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I14" s="76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K14" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L14" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E15" s="75">
         <v>139454</v>
@@ -10009,33 +10006,33 @@
         <v>999999</v>
       </c>
       <c r="H15" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I15" s="76" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J15" s="76" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K15" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L15" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E16" s="75">
         <v>1</v>
@@ -10048,19 +10045,19 @@
         <v>100000</v>
       </c>
       <c r="H16" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I16" s="76" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K16" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L16" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
